--- a/InputData/io-model/URPbIC/Union Representation Perc by ISIC Code.xlsx
+++ b/InputData/io-model/URPbIC/Union Representation Perc by ISIC Code.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jeff-nonadmin\CodeRepositories\eps-us\InputData\io-model\URPbIC\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\CodeRepositories\eps-us\InputData\io-model\URPbIC\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0DE1EEED-7765-4B17-A60A-C3BCC453D516}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7EC6CC0-D32D-45CD-8156-ABD0332C3D40}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3210" yWindow="585" windowWidth="24090" windowHeight="16650" xr2:uid="{111598D9-CA0B-488C-B665-0CB52396764C}"/>
+    <workbookView xWindow="2070" yWindow="780" windowWidth="26295" windowHeight="16380" xr2:uid="{111598D9-CA0B-488C-B665-0CB52396764C}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="2" r:id="rId1"/>
@@ -18,7 +18,7 @@
     <sheet name="ISIC to BLS Map" sheetId="4" r:id="rId3"/>
     <sheet name="URPbIC" sheetId="3" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="191029" concurrentCalc="0"/>
+  <calcPr calcId="191029" iterate="1" iterateDelta="1.0000000000000001E-5"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="161">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="163">
   <si>
     <t>Management, professional, and related occupations</t>
   </si>
@@ -290,9 +290,6 @@
     <t>ISIC 01T03</t>
   </si>
   <si>
-    <t>ISIC 05T06</t>
-  </si>
-  <si>
     <t>ISIC 07T08</t>
   </si>
   <si>
@@ -404,9 +401,6 @@
     <t>Agriculture, forestry and fishing</t>
   </si>
   <si>
-    <t>Mining and extraction of energy producing products</t>
-  </si>
-  <si>
     <t>Mining and quarrying of non-energy producing products</t>
   </si>
   <si>
@@ -519,6 +513,18 @@
   </si>
   <si>
     <t>ISIC 20</t>
+  </si>
+  <si>
+    <t>ISIC 06</t>
+  </si>
+  <si>
+    <t>ISIC 05</t>
+  </si>
+  <si>
+    <t>Coal mining</t>
+  </si>
+  <si>
+    <t>Oil and gas extraction</t>
   </si>
 </sst>
 </file>
@@ -2463,7 +2469,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BA20B78F-BFAE-4D2B-A715-7003FB965387}">
-  <dimension ref="A1:D38"/>
+  <dimension ref="A1:D39"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2477,16 +2483,16 @@
   <sheetData>
     <row r="1" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="9" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B1" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="D1" s="14" t="s">
         <v>154</v>
-      </c>
-      <c r="C1" s="4" t="s">
-        <v>155</v>
-      </c>
-      <c r="D1" s="14" t="s">
-        <v>156</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
@@ -2494,7 +2500,7 @@
         <v>83</v>
       </c>
       <c r="B2" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C2" s="15" t="str">
         <f>'BLS Table 3'!A36</f>
@@ -2507,10 +2513,10 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
-        <v>84</v>
+        <v>160</v>
       </c>
       <c r="B3" t="s">
-        <v>122</v>
+        <v>161</v>
       </c>
       <c r="C3" s="15" t="str">
         <f>'BLS Table 3'!A38</f>
@@ -2523,10 +2529,10 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
-        <v>85</v>
+        <v>159</v>
       </c>
       <c r="B4" t="s">
-        <v>123</v>
+        <v>162</v>
       </c>
       <c r="C4" s="15" t="str">
         <f>'BLS Table 3'!A38</f>
@@ -2539,10 +2545,10 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B5" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="C5" s="15" t="str">
         <f>'BLS Table 3'!A38</f>
@@ -2555,26 +2561,26 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B6" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="C6" s="15" t="str">
-        <f>'BLS Table 3'!$A$42</f>
-        <v>Nondurable goods</v>
+        <f>'BLS Table 3'!A38</f>
+        <v>Mining, quarrying, and oil and gas extraction</v>
       </c>
       <c r="D6">
         <f>VLOOKUP($C6,'BLS Table 3'!$A$3:$F$75,COLUMN('BLS Table 3'!$F$2),FALSE)/100</f>
-        <v>9.1999999999999998E-2</v>
+        <v>4.7E-2</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B7" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="C7" s="15" t="str">
         <f>'BLS Table 3'!$A$42</f>
@@ -2587,10 +2593,10 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B8" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="C8" s="15" t="str">
         <f>'BLS Table 3'!$A$42</f>
@@ -2603,10 +2609,10 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B9" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="C9" s="15" t="str">
         <f>'BLS Table 3'!$A$42</f>
@@ -2619,10 +2625,10 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B10" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="C10" s="15" t="str">
         <f>'BLS Table 3'!$A$42</f>
@@ -2635,10 +2641,10 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
-        <v>160</v>
+        <v>90</v>
       </c>
       <c r="B11" t="s">
-        <v>158</v>
+        <v>127</v>
       </c>
       <c r="C11" s="15" t="str">
         <f>'BLS Table 3'!$A$42</f>
@@ -2651,10 +2657,10 @@
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="B12" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="C12" s="15" t="str">
         <f>'BLS Table 3'!$A$42</f>
@@ -2667,10 +2673,10 @@
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
-        <v>92</v>
+        <v>155</v>
       </c>
       <c r="B13" t="s">
-        <v>130</v>
+        <v>157</v>
       </c>
       <c r="C13" s="15" t="str">
         <f>'BLS Table 3'!$A$42</f>
@@ -2683,26 +2689,26 @@
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="5" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B14" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="C14" s="15" t="str">
-        <f>'BLS Table 3'!$A$41</f>
-        <v>Durable goods</v>
+        <f>'BLS Table 3'!$A$42</f>
+        <v>Nondurable goods</v>
       </c>
       <c r="D14">
         <f>VLOOKUP($C14,'BLS Table 3'!$A$3:$F$75,COLUMN('BLS Table 3'!$F$2),FALSE)/100</f>
-        <v>9.6000000000000002E-2</v>
+        <v>9.1999999999999998E-2</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="5" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B15" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="C15" s="15" t="str">
         <f>'BLS Table 3'!$A$41</f>
@@ -2715,10 +2721,10 @@
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="5" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B16" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="C16" s="15" t="str">
         <f>'BLS Table 3'!$A$41</f>
@@ -2731,10 +2737,10 @@
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="5" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B17" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="C17" s="15" t="str">
         <f>'BLS Table 3'!$A$41</f>
@@ -2747,10 +2753,10 @@
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="5" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B18" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="C18" s="15" t="str">
         <f>'BLS Table 3'!$A$41</f>
@@ -2763,10 +2769,10 @@
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="5" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B19" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="C19" s="15" t="str">
         <f>'BLS Table 3'!$A$41</f>
@@ -2779,10 +2785,10 @@
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="5" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="B20" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="C20" s="15" t="str">
         <f>'BLS Table 3'!$A$41</f>
@@ -2795,10 +2801,10 @@
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="5" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B21" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="C21" s="15" t="str">
         <f>'BLS Table 3'!$A$41</f>
@@ -2811,273 +2817,289 @@
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="5" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B22" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="C22" s="15" t="str">
+        <f>'BLS Table 3'!$A$41</f>
+        <v>Durable goods</v>
+      </c>
+      <c r="D22">
+        <f>VLOOKUP($C22,'BLS Table 3'!$A$3:$F$75,COLUMN('BLS Table 3'!$F$2),FALSE)/100</f>
+        <v>9.6000000000000002E-2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="B23" t="s">
+        <v>137</v>
+      </c>
+      <c r="C23" s="15" t="str">
         <f>'BLS Table 3'!A40</f>
         <v>Manufacturing</v>
       </c>
-      <c r="D22">
-        <f>VLOOKUP($C22,'BLS Table 3'!$A$3:$F$75,COLUMN('BLS Table 3'!$F$2),FALSE)/100</f>
+      <c r="D23">
+        <f>VLOOKUP($C23,'BLS Table 3'!$A$3:$F$75,COLUMN('BLS Table 3'!$F$2),FALSE)/100</f>
         <v>9.4E-2</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A23" s="5" t="s">
-        <v>102</v>
-      </c>
-      <c r="B23" t="s">
-        <v>140</v>
-      </c>
-      <c r="C23" s="15" t="str">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="B24" t="s">
+        <v>138</v>
+      </c>
+      <c r="C24" s="15" t="str">
         <f>'BLS Table 3'!A48</f>
         <v>Utilities</v>
       </c>
-      <c r="D23">
-        <f>VLOOKUP($C23,'BLS Table 3'!$A$3:$F$75,COLUMN('BLS Table 3'!$F$2),FALSE)/100</f>
+      <c r="D24">
+        <f>VLOOKUP($C24,'BLS Table 3'!$A$3:$F$75,COLUMN('BLS Table 3'!$F$2),FALSE)/100</f>
         <v>0.24</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A24" s="5" t="s">
-        <v>103</v>
-      </c>
-      <c r="B24" t="s">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="B25" t="s">
         <v>34</v>
       </c>
-      <c r="C24" s="15" t="str">
+      <c r="C25" s="15" t="str">
         <f>'BLS Table 3'!A39</f>
         <v>Construction</v>
       </c>
-      <c r="D24">
-        <f>VLOOKUP($C24,'BLS Table 3'!$A$3:$F$75,COLUMN('BLS Table 3'!$F$2),FALSE)/100</f>
+      <c r="D25">
+        <f>VLOOKUP($C25,'BLS Table 3'!$A$3:$F$75,COLUMN('BLS Table 3'!$F$2),FALSE)/100</f>
         <v>0.13600000000000001</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A25" s="5" t="s">
-        <v>104</v>
-      </c>
-      <c r="B25" t="s">
-        <v>141</v>
-      </c>
-      <c r="C25" s="15" t="str">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="B26" t="s">
+        <v>139</v>
+      </c>
+      <c r="C26" s="15" t="str">
         <f>'BLS Table 3'!A43</f>
         <v>Wholesale and retail trade</v>
       </c>
-      <c r="D25">
-        <f>VLOOKUP($C25,'BLS Table 3'!$A$3:$F$75,COLUMN('BLS Table 3'!$F$2),FALSE)/100</f>
+      <c r="D26">
+        <f>VLOOKUP($C26,'BLS Table 3'!$A$3:$F$75,COLUMN('BLS Table 3'!$F$2),FALSE)/100</f>
         <v>4.8000000000000001E-2</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A26" s="5" t="s">
-        <v>105</v>
-      </c>
-      <c r="B26" t="s">
-        <v>142</v>
-      </c>
-      <c r="C26" s="15" t="str">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="B27" t="s">
+        <v>140</v>
+      </c>
+      <c r="C27" s="15" t="str">
         <f>'BLS Table 3'!A47</f>
         <v>Transportation and warehousing</v>
       </c>
-      <c r="D26">
-        <f>VLOOKUP($C26,'BLS Table 3'!$A$3:$F$75,COLUMN('BLS Table 3'!$F$2),FALSE)/100</f>
+      <c r="D27">
+        <f>VLOOKUP($C27,'BLS Table 3'!$A$3:$F$75,COLUMN('BLS Table 3'!$F$2),FALSE)/100</f>
         <v>0.17600000000000002</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A27" s="5" t="s">
-        <v>106</v>
-      </c>
-      <c r="B27" t="s">
-        <v>143</v>
-      </c>
-      <c r="C27" s="15" t="str">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="B28" t="s">
+        <v>141</v>
+      </c>
+      <c r="C28" s="15" t="str">
         <f>'BLS Table 3'!A67</f>
         <v>Accommodation and food services</v>
       </c>
-      <c r="D27">
-        <f>VLOOKUP($C27,'BLS Table 3'!$A$3:$F$75,COLUMN('BLS Table 3'!$F$2),FALSE)/100</f>
+      <c r="D28">
+        <f>VLOOKUP($C28,'BLS Table 3'!$A$3:$F$75,COLUMN('BLS Table 3'!$F$2),FALSE)/100</f>
         <v>2.6000000000000002E-2</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A28" s="5" t="s">
-        <v>107</v>
-      </c>
-      <c r="B28" t="s">
-        <v>144</v>
-      </c>
-      <c r="C28" s="15" t="str">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="B29" t="s">
+        <v>142</v>
+      </c>
+      <c r="C29" s="15" t="str">
         <f>'BLS Table 3'!A49</f>
         <v>Information(3)</v>
       </c>
-      <c r="D28">
-        <f>VLOOKUP($C28,'BLS Table 3'!$A$3:$F$75,COLUMN('BLS Table 3'!$F$2),FALSE)/100</f>
+      <c r="D29">
+        <f>VLOOKUP($C29,'BLS Table 3'!$A$3:$F$75,COLUMN('BLS Table 3'!$F$2),FALSE)/100</f>
         <v>0.11199999999999999</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A29" s="5" t="s">
-        <v>108</v>
-      </c>
-      <c r="B29" t="s">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="B30" t="s">
         <v>48</v>
       </c>
-      <c r="C29" s="15" t="str">
+      <c r="C30" s="15" t="str">
         <f>'BLS Table 3'!A53</f>
         <v>Telecommunications</v>
       </c>
-      <c r="D29">
-        <f>VLOOKUP($C29,'BLS Table 3'!$A$3:$F$75,COLUMN('BLS Table 3'!$F$2),FALSE)/100</f>
+      <c r="D30">
+        <f>VLOOKUP($C30,'BLS Table 3'!$A$3:$F$75,COLUMN('BLS Table 3'!$F$2),FALSE)/100</f>
         <v>0.153</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A30" s="5" t="s">
-        <v>109</v>
-      </c>
-      <c r="B30" t="s">
-        <v>145</v>
-      </c>
-      <c r="C30" s="15" t="str">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A31" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="B31" t="s">
+        <v>143</v>
+      </c>
+      <c r="C31" s="15" t="str">
         <f>'BLS Table 3'!A60</f>
         <v>Professional and technical services</v>
       </c>
-      <c r="D30">
-        <f>VLOOKUP($C30,'BLS Table 3'!$A$3:$F$75,COLUMN('BLS Table 3'!$F$2),FALSE)/100</f>
+      <c r="D31">
+        <f>VLOOKUP($C31,'BLS Table 3'!$A$3:$F$75,COLUMN('BLS Table 3'!$F$2),FALSE)/100</f>
         <v>2.2000000000000002E-2</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A31" s="5" t="s">
-        <v>110</v>
-      </c>
-      <c r="B31" t="s">
-        <v>146</v>
-      </c>
-      <c r="C31" s="15" t="str">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A32" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="B32" t="s">
+        <v>144</v>
+      </c>
+      <c r="C32" s="15" t="str">
         <f>'BLS Table 3'!A55</f>
         <v>Finance and insurance</v>
       </c>
-      <c r="D31">
-        <f>VLOOKUP($C31,'BLS Table 3'!$A$3:$F$75,COLUMN('BLS Table 3'!$F$2),FALSE)/100</f>
+      <c r="D32">
+        <f>VLOOKUP($C32,'BLS Table 3'!$A$3:$F$75,COLUMN('BLS Table 3'!$F$2),FALSE)/100</f>
         <v>1.8000000000000002E-2</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A32" s="5" t="s">
-        <v>111</v>
-      </c>
-      <c r="B32" t="s">
-        <v>147</v>
-      </c>
-      <c r="C32" s="15" t="str">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A33" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="B33" t="s">
+        <v>145</v>
+      </c>
+      <c r="C33" s="15" t="str">
         <f>'BLS Table 3'!A58</f>
         <v>Real estate and rental and leasing</v>
       </c>
-      <c r="D32">
-        <f>VLOOKUP($C32,'BLS Table 3'!$A$3:$F$75,COLUMN('BLS Table 3'!$F$2),FALSE)/100</f>
+      <c r="D33">
+        <f>VLOOKUP($C33,'BLS Table 3'!$A$3:$F$75,COLUMN('BLS Table 3'!$F$2),FALSE)/100</f>
         <v>4.7E-2</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A33" s="5" t="s">
-        <v>112</v>
-      </c>
-      <c r="B33" t="s">
-        <v>148</v>
-      </c>
-      <c r="C33" s="15" t="str">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A34" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="B34" t="s">
+        <v>146</v>
+      </c>
+      <c r="C34" s="15" t="str">
         <f>'BLS Table 3'!A59</f>
         <v>Professional and business services</v>
       </c>
-      <c r="D33">
-        <f>VLOOKUP($C33,'BLS Table 3'!$A$3:$F$75,COLUMN('BLS Table 3'!$F$2),FALSE)/100</f>
+      <c r="D34">
+        <f>VLOOKUP($C34,'BLS Table 3'!$A$3:$F$75,COLUMN('BLS Table 3'!$F$2),FALSE)/100</f>
         <v>0.03</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A34" s="5" t="s">
-        <v>113</v>
-      </c>
-      <c r="B34" t="s">
-        <v>149</v>
-      </c>
-      <c r="C34" s="15" t="str">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A35" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="B35" t="s">
+        <v>147</v>
+      </c>
+      <c r="C35" s="15" t="str">
         <f>'BLS Table 3'!A73</f>
         <v>Federal government</v>
       </c>
-      <c r="D34">
-        <f>VLOOKUP($C34,'BLS Table 3'!$A$3:$F$75,COLUMN('BLS Table 3'!$F$2),FALSE)/100</f>
+      <c r="D35">
+        <f>VLOOKUP($C35,'BLS Table 3'!$A$3:$F$75,COLUMN('BLS Table 3'!$F$2),FALSE)/100</f>
         <v>0.30499999999999999</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A35" s="5" t="s">
-        <v>114</v>
-      </c>
-      <c r="B35" t="s">
-        <v>150</v>
-      </c>
-      <c r="C35" s="15" t="str">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A36" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="B36" t="s">
+        <v>148</v>
+      </c>
+      <c r="C36" s="15" t="str">
         <f>'BLS Table 3'!A14</f>
         <v>Education, training, and library occupations</v>
       </c>
-      <c r="D35">
-        <f>VLOOKUP($C35,'BLS Table 3'!$A$3:$F$75,COLUMN('BLS Table 3'!$F$2),FALSE)/100</f>
+      <c r="D36">
+        <f>VLOOKUP($C36,'BLS Table 3'!$A$3:$F$75,COLUMN('BLS Table 3'!$F$2),FALSE)/100</f>
         <v>0.36599999999999999</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A36" s="5" t="s">
-        <v>115</v>
-      </c>
-      <c r="B36" t="s">
-        <v>151</v>
-      </c>
-      <c r="C36" s="15" t="str">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A37" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="B37" t="s">
+        <v>149</v>
+      </c>
+      <c r="C37" s="15" t="str">
         <f>'BLS Table 3'!A64</f>
         <v>Health care and social assistance</v>
       </c>
-      <c r="D36">
-        <f>VLOOKUP($C36,'BLS Table 3'!$A$3:$F$75,COLUMN('BLS Table 3'!$F$2),FALSE)/100</f>
+      <c r="D37">
+        <f>VLOOKUP($C37,'BLS Table 3'!$A$3:$F$75,COLUMN('BLS Table 3'!$F$2),FALSE)/100</f>
         <v>7.9000000000000001E-2</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A37" s="5" t="s">
-        <v>116</v>
-      </c>
-      <c r="B37" t="s">
-        <v>152</v>
-      </c>
-      <c r="C37" s="15" t="str">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A38" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="B38" t="s">
+        <v>150</v>
+      </c>
+      <c r="C38" s="15" t="str">
         <f>'BLS Table 3'!A66</f>
         <v>Arts, entertainment, and recreation</v>
       </c>
-      <c r="D37">
-        <f>VLOOKUP($C37,'BLS Table 3'!$A$3:$F$75,COLUMN('BLS Table 3'!$F$2),FALSE)/100</f>
+      <c r="D38">
+        <f>VLOOKUP($C38,'BLS Table 3'!$A$3:$F$75,COLUMN('BLS Table 3'!$F$2),FALSE)/100</f>
         <v>7.400000000000001E-2</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A38" s="5" t="s">
-        <v>117</v>
-      </c>
-      <c r="B38" t="s">
-        <v>153</v>
-      </c>
-      <c r="C38" s="15" t="str">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A39" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="B39" t="s">
+        <v>151</v>
+      </c>
+      <c r="C39" s="15" t="str">
         <f>'BLS Table 3'!A70</f>
         <v>Other services(3)</v>
       </c>
-      <c r="D38">
-        <f>VLOOKUP($C38,'BLS Table 3'!$A$3:$F$75,COLUMN('BLS Table 3'!$F$2),FALSE)/100</f>
+      <c r="D39">
+        <f>VLOOKUP($C39,'BLS Table 3'!$A$3:$F$75,COLUMN('BLS Table 3'!$F$2),FALSE)/100</f>
         <v>3.3000000000000002E-2</v>
       </c>
     </row>
@@ -3091,282 +3113,289 @@
   <sheetPr>
     <tabColor theme="4" tint="-0.249977111117893"/>
   </sheetPr>
-  <dimension ref="A1:AL2"/>
+  <dimension ref="A1:AM2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="33.28515625" customWidth="1"/>
-    <col min="2" max="38" width="11.5703125" customWidth="1"/>
+    <col min="2" max="39" width="11.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:38" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:39" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B1" s="8" t="s">
         <v>83</v>
       </c>
       <c r="C1" s="8" t="s">
+        <v>160</v>
+      </c>
+      <c r="D1" s="8" t="s">
+        <v>159</v>
+      </c>
+      <c r="E1" s="8" t="s">
         <v>84</v>
       </c>
-      <c r="D1" s="8" t="s">
+      <c r="F1" s="8" t="s">
         <v>85</v>
       </c>
-      <c r="E1" s="8" t="s">
+      <c r="G1" s="8" t="s">
         <v>86</v>
       </c>
-      <c r="F1" s="8" t="s">
+      <c r="H1" s="8" t="s">
         <v>87</v>
       </c>
-      <c r="G1" s="8" t="s">
+      <c r="I1" s="8" t="s">
         <v>88</v>
       </c>
-      <c r="H1" s="8" t="s">
+      <c r="J1" s="8" t="s">
         <v>89</v>
       </c>
-      <c r="I1" s="8" t="s">
+      <c r="K1" s="8" t="s">
         <v>90</v>
       </c>
-      <c r="J1" s="8" t="s">
+      <c r="L1" s="8" t="s">
+        <v>158</v>
+      </c>
+      <c r="M1" s="8" t="s">
+        <v>155</v>
+      </c>
+      <c r="N1" s="8" t="s">
         <v>91</v>
       </c>
-      <c r="K1" s="8" t="s">
-        <v>160</v>
-      </c>
-      <c r="L1" s="8" t="s">
-        <v>157</v>
-      </c>
-      <c r="M1" s="8" t="s">
+      <c r="O1" s="8" t="s">
         <v>92</v>
       </c>
-      <c r="N1" s="8" t="s">
+      <c r="P1" s="8" t="s">
         <v>93</v>
       </c>
-      <c r="O1" s="8" t="s">
+      <c r="Q1" s="8" t="s">
         <v>94</v>
       </c>
-      <c r="P1" s="8" t="s">
+      <c r="R1" s="8" t="s">
         <v>95</v>
       </c>
-      <c r="Q1" s="8" t="s">
+      <c r="S1" s="8" t="s">
         <v>96</v>
       </c>
-      <c r="R1" s="8" t="s">
+      <c r="T1" s="8" t="s">
         <v>97</v>
       </c>
-      <c r="S1" s="8" t="s">
+      <c r="U1" s="8" t="s">
         <v>98</v>
       </c>
-      <c r="T1" s="8" t="s">
+      <c r="V1" s="8" t="s">
         <v>99</v>
       </c>
-      <c r="U1" s="8" t="s">
+      <c r="W1" s="8" t="s">
         <v>100</v>
       </c>
-      <c r="V1" s="8" t="s">
+      <c r="X1" s="8" t="s">
         <v>101</v>
       </c>
-      <c r="W1" s="8" t="s">
+      <c r="Y1" s="8" t="s">
         <v>102</v>
       </c>
-      <c r="X1" s="8" t="s">
+      <c r="Z1" s="8" t="s">
         <v>103</v>
       </c>
-      <c r="Y1" s="8" t="s">
+      <c r="AA1" s="8" t="s">
         <v>104</v>
       </c>
-      <c r="Z1" s="8" t="s">
+      <c r="AB1" s="8" t="s">
         <v>105</v>
       </c>
-      <c r="AA1" s="8" t="s">
+      <c r="AC1" s="8" t="s">
         <v>106</v>
       </c>
-      <c r="AB1" s="8" t="s">
+      <c r="AD1" s="8" t="s">
         <v>107</v>
       </c>
-      <c r="AC1" s="8" t="s">
+      <c r="AE1" s="8" t="s">
         <v>108</v>
       </c>
-      <c r="AD1" s="8" t="s">
+      <c r="AF1" s="8" t="s">
         <v>109</v>
       </c>
-      <c r="AE1" s="8" t="s">
+      <c r="AG1" s="8" t="s">
         <v>110</v>
       </c>
-      <c r="AF1" s="8" t="s">
+      <c r="AH1" s="8" t="s">
         <v>111</v>
       </c>
-      <c r="AG1" s="8" t="s">
+      <c r="AI1" s="8" t="s">
         <v>112</v>
       </c>
-      <c r="AH1" s="8" t="s">
+      <c r="AJ1" s="8" t="s">
         <v>113</v>
       </c>
-      <c r="AI1" s="8" t="s">
+      <c r="AK1" s="8" t="s">
         <v>114</v>
       </c>
-      <c r="AJ1" s="8" t="s">
+      <c r="AL1" s="8" t="s">
         <v>115</v>
       </c>
-      <c r="AK1" s="8" t="s">
+      <c r="AM1" s="8" t="s">
         <v>116</v>
       </c>
-      <c r="AL1" s="8" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="2" spans="1:38" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B2">
-        <f>VLOOKUP(B$1,'ISIC to BLS Map'!$A$1:$D$38,COLUMN('ISIC to BLS Map'!$D$1),FALSE)</f>
+        <f>VLOOKUP(B$1,'ISIC to BLS Map'!$A$1:$D$39,COLUMN('ISIC to BLS Map'!$D$1),FALSE)</f>
         <v>2.7999999999999997E-2</v>
       </c>
       <c r="C2">
-        <f>VLOOKUP(C$1,'ISIC to BLS Map'!$A$1:$D$38,COLUMN('ISIC to BLS Map'!$D$1),FALSE)</f>
+        <f>VLOOKUP(C$1,'ISIC to BLS Map'!$A$1:$D$39,COLUMN('ISIC to BLS Map'!$D$1),FALSE)</f>
         <v>4.7E-2</v>
       </c>
       <c r="D2">
-        <f>VLOOKUP(D$1,'ISIC to BLS Map'!$A$1:$D$38,COLUMN('ISIC to BLS Map'!$D$1),FALSE)</f>
+        <f>VLOOKUP(D$1,'ISIC to BLS Map'!$A$1:$D$39,COLUMN('ISIC to BLS Map'!$D$1),FALSE)</f>
         <v>4.7E-2</v>
       </c>
       <c r="E2">
-        <f>VLOOKUP(E$1,'ISIC to BLS Map'!$A$1:$D$38,COLUMN('ISIC to BLS Map'!$D$1),FALSE)</f>
+        <f>VLOOKUP(E$1,'ISIC to BLS Map'!$A$1:$D$39,COLUMN('ISIC to BLS Map'!$D$1),FALSE)</f>
         <v>4.7E-2</v>
       </c>
       <c r="F2">
-        <f>VLOOKUP(F$1,'ISIC to BLS Map'!$A$1:$D$38,COLUMN('ISIC to BLS Map'!$D$1),FALSE)</f>
+        <f>VLOOKUP(F$1,'ISIC to BLS Map'!$A$1:$D$39,COLUMN('ISIC to BLS Map'!$D$1),FALSE)</f>
+        <v>4.7E-2</v>
+      </c>
+      <c r="G2">
+        <f>VLOOKUP(G$1,'ISIC to BLS Map'!$A$1:$D$39,COLUMN('ISIC to BLS Map'!$D$1),FALSE)</f>
         <v>9.1999999999999998E-2</v>
       </c>
-      <c r="G2">
-        <f>VLOOKUP(G$1,'ISIC to BLS Map'!$A$1:$D$38,COLUMN('ISIC to BLS Map'!$D$1),FALSE)</f>
+      <c r="H2">
+        <f>VLOOKUP(H$1,'ISIC to BLS Map'!$A$1:$D$39,COLUMN('ISIC to BLS Map'!$D$1),FALSE)</f>
         <v>9.1999999999999998E-2</v>
       </c>
-      <c r="H2">
-        <f>VLOOKUP(H$1,'ISIC to BLS Map'!$A$1:$D$38,COLUMN('ISIC to BLS Map'!$D$1),FALSE)</f>
+      <c r="I2">
+        <f>VLOOKUP(I$1,'ISIC to BLS Map'!$A$1:$D$39,COLUMN('ISIC to BLS Map'!$D$1),FALSE)</f>
         <v>9.1999999999999998E-2</v>
       </c>
-      <c r="I2">
-        <f>VLOOKUP(I$1,'ISIC to BLS Map'!$A$1:$D$38,COLUMN('ISIC to BLS Map'!$D$1),FALSE)</f>
+      <c r="J2">
+        <f>VLOOKUP(J$1,'ISIC to BLS Map'!$A$1:$D$39,COLUMN('ISIC to BLS Map'!$D$1),FALSE)</f>
         <v>9.1999999999999998E-2</v>
       </c>
-      <c r="J2">
-        <f>VLOOKUP(J$1,'ISIC to BLS Map'!$A$1:$D$38,COLUMN('ISIC to BLS Map'!$D$1),FALSE)</f>
+      <c r="K2">
+        <f>VLOOKUP(K$1,'ISIC to BLS Map'!$A$1:$D$39,COLUMN('ISIC to BLS Map'!$D$1),FALSE)</f>
         <v>9.1999999999999998E-2</v>
       </c>
-      <c r="K2">
-        <f>VLOOKUP(K$1,'ISIC to BLS Map'!$A$1:$D$38,COLUMN('ISIC to BLS Map'!$D$1),FALSE)</f>
+      <c r="L2">
+        <f>VLOOKUP(L$1,'ISIC to BLS Map'!$A$1:$D$39,COLUMN('ISIC to BLS Map'!$D$1),FALSE)</f>
         <v>9.1999999999999998E-2</v>
       </c>
-      <c r="L2">
-        <f>VLOOKUP(L$1,'ISIC to BLS Map'!$A$1:$D$38,COLUMN('ISIC to BLS Map'!$D$1),FALSE)</f>
+      <c r="M2">
+        <f>VLOOKUP(M$1,'ISIC to BLS Map'!$A$1:$D$39,COLUMN('ISIC to BLS Map'!$D$1),FALSE)</f>
         <v>9.1999999999999998E-2</v>
       </c>
-      <c r="M2">
-        <f>VLOOKUP(M$1,'ISIC to BLS Map'!$A$1:$D$38,COLUMN('ISIC to BLS Map'!$D$1),FALSE)</f>
+      <c r="N2">
+        <f>VLOOKUP(N$1,'ISIC to BLS Map'!$A$1:$D$39,COLUMN('ISIC to BLS Map'!$D$1),FALSE)</f>
         <v>9.1999999999999998E-2</v>
       </c>
-      <c r="N2">
-        <f>VLOOKUP(N$1,'ISIC to BLS Map'!$A$1:$D$38,COLUMN('ISIC to BLS Map'!$D$1),FALSE)</f>
+      <c r="O2">
+        <f>VLOOKUP(O$1,'ISIC to BLS Map'!$A$1:$D$39,COLUMN('ISIC to BLS Map'!$D$1),FALSE)</f>
         <v>9.6000000000000002E-2</v>
       </c>
-      <c r="O2">
-        <f>VLOOKUP(O$1,'ISIC to BLS Map'!$A$1:$D$38,COLUMN('ISIC to BLS Map'!$D$1),FALSE)</f>
+      <c r="P2">
+        <f>VLOOKUP(P$1,'ISIC to BLS Map'!$A$1:$D$39,COLUMN('ISIC to BLS Map'!$D$1),FALSE)</f>
         <v>9.6000000000000002E-2</v>
       </c>
-      <c r="P2">
-        <f>VLOOKUP(P$1,'ISIC to BLS Map'!$A$1:$D$38,COLUMN('ISIC to BLS Map'!$D$1),FALSE)</f>
+      <c r="Q2">
+        <f>VLOOKUP(Q$1,'ISIC to BLS Map'!$A$1:$D$39,COLUMN('ISIC to BLS Map'!$D$1),FALSE)</f>
         <v>9.6000000000000002E-2</v>
       </c>
-      <c r="Q2">
-        <f>VLOOKUP(Q$1,'ISIC to BLS Map'!$A$1:$D$38,COLUMN('ISIC to BLS Map'!$D$1),FALSE)</f>
+      <c r="R2">
+        <f>VLOOKUP(R$1,'ISIC to BLS Map'!$A$1:$D$39,COLUMN('ISIC to BLS Map'!$D$1),FALSE)</f>
         <v>9.6000000000000002E-2</v>
       </c>
-      <c r="R2">
-        <f>VLOOKUP(R$1,'ISIC to BLS Map'!$A$1:$D$38,COLUMN('ISIC to BLS Map'!$D$1),FALSE)</f>
+      <c r="S2">
+        <f>VLOOKUP(S$1,'ISIC to BLS Map'!$A$1:$D$39,COLUMN('ISIC to BLS Map'!$D$1),FALSE)</f>
         <v>9.6000000000000002E-2</v>
       </c>
-      <c r="S2">
-        <f>VLOOKUP(S$1,'ISIC to BLS Map'!$A$1:$D$38,COLUMN('ISIC to BLS Map'!$D$1),FALSE)</f>
+      <c r="T2">
+        <f>VLOOKUP(T$1,'ISIC to BLS Map'!$A$1:$D$39,COLUMN('ISIC to BLS Map'!$D$1),FALSE)</f>
         <v>9.6000000000000002E-2</v>
       </c>
-      <c r="T2">
-        <f>VLOOKUP(T$1,'ISIC to BLS Map'!$A$1:$D$38,COLUMN('ISIC to BLS Map'!$D$1),FALSE)</f>
+      <c r="U2">
+        <f>VLOOKUP(U$1,'ISIC to BLS Map'!$A$1:$D$39,COLUMN('ISIC to BLS Map'!$D$1),FALSE)</f>
         <v>9.6000000000000002E-2</v>
       </c>
-      <c r="U2">
-        <f>VLOOKUP(U$1,'ISIC to BLS Map'!$A$1:$D$38,COLUMN('ISIC to BLS Map'!$D$1),FALSE)</f>
+      <c r="V2">
+        <f>VLOOKUP(V$1,'ISIC to BLS Map'!$A$1:$D$39,COLUMN('ISIC to BLS Map'!$D$1),FALSE)</f>
         <v>9.6000000000000002E-2</v>
       </c>
-      <c r="V2">
-        <f>VLOOKUP(V$1,'ISIC to BLS Map'!$A$1:$D$38,COLUMN('ISIC to BLS Map'!$D$1),FALSE)</f>
+      <c r="W2">
+        <f>VLOOKUP(W$1,'ISIC to BLS Map'!$A$1:$D$39,COLUMN('ISIC to BLS Map'!$D$1),FALSE)</f>
         <v>9.4E-2</v>
       </c>
-      <c r="W2">
-        <f>VLOOKUP(W$1,'ISIC to BLS Map'!$A$1:$D$38,COLUMN('ISIC to BLS Map'!$D$1),FALSE)</f>
+      <c r="X2">
+        <f>VLOOKUP(X$1,'ISIC to BLS Map'!$A$1:$D$39,COLUMN('ISIC to BLS Map'!$D$1),FALSE)</f>
         <v>0.24</v>
       </c>
-      <c r="X2">
-        <f>VLOOKUP(X$1,'ISIC to BLS Map'!$A$1:$D$38,COLUMN('ISIC to BLS Map'!$D$1),FALSE)</f>
+      <c r="Y2">
+        <f>VLOOKUP(Y$1,'ISIC to BLS Map'!$A$1:$D$39,COLUMN('ISIC to BLS Map'!$D$1),FALSE)</f>
         <v>0.13600000000000001</v>
       </c>
-      <c r="Y2">
-        <f>VLOOKUP(Y$1,'ISIC to BLS Map'!$A$1:$D$38,COLUMN('ISIC to BLS Map'!$D$1),FALSE)</f>
+      <c r="Z2">
+        <f>VLOOKUP(Z$1,'ISIC to BLS Map'!$A$1:$D$39,COLUMN('ISIC to BLS Map'!$D$1),FALSE)</f>
         <v>4.8000000000000001E-2</v>
       </c>
-      <c r="Z2">
-        <f>VLOOKUP(Z$1,'ISIC to BLS Map'!$A$1:$D$38,COLUMN('ISIC to BLS Map'!$D$1),FALSE)</f>
+      <c r="AA2">
+        <f>VLOOKUP(AA$1,'ISIC to BLS Map'!$A$1:$D$39,COLUMN('ISIC to BLS Map'!$D$1),FALSE)</f>
         <v>0.17600000000000002</v>
       </c>
-      <c r="AA2">
-        <f>VLOOKUP(AA$1,'ISIC to BLS Map'!$A$1:$D$38,COLUMN('ISIC to BLS Map'!$D$1),FALSE)</f>
+      <c r="AB2">
+        <f>VLOOKUP(AB$1,'ISIC to BLS Map'!$A$1:$D$39,COLUMN('ISIC to BLS Map'!$D$1),FALSE)</f>
         <v>2.6000000000000002E-2</v>
       </c>
-      <c r="AB2">
-        <f>VLOOKUP(AB$1,'ISIC to BLS Map'!$A$1:$D$38,COLUMN('ISIC to BLS Map'!$D$1),FALSE)</f>
+      <c r="AC2">
+        <f>VLOOKUP(AC$1,'ISIC to BLS Map'!$A$1:$D$39,COLUMN('ISIC to BLS Map'!$D$1),FALSE)</f>
         <v>0.11199999999999999</v>
       </c>
-      <c r="AC2">
-        <f>VLOOKUP(AC$1,'ISIC to BLS Map'!$A$1:$D$38,COLUMN('ISIC to BLS Map'!$D$1),FALSE)</f>
+      <c r="AD2">
+        <f>VLOOKUP(AD$1,'ISIC to BLS Map'!$A$1:$D$39,COLUMN('ISIC to BLS Map'!$D$1),FALSE)</f>
         <v>0.153</v>
       </c>
-      <c r="AD2">
-        <f>VLOOKUP(AD$1,'ISIC to BLS Map'!$A$1:$D$38,COLUMN('ISIC to BLS Map'!$D$1),FALSE)</f>
+      <c r="AE2">
+        <f>VLOOKUP(AE$1,'ISIC to BLS Map'!$A$1:$D$39,COLUMN('ISIC to BLS Map'!$D$1),FALSE)</f>
         <v>2.2000000000000002E-2</v>
       </c>
-      <c r="AE2">
-        <f>VLOOKUP(AE$1,'ISIC to BLS Map'!$A$1:$D$38,COLUMN('ISIC to BLS Map'!$D$1),FALSE)</f>
+      <c r="AF2">
+        <f>VLOOKUP(AF$1,'ISIC to BLS Map'!$A$1:$D$39,COLUMN('ISIC to BLS Map'!$D$1),FALSE)</f>
         <v>1.8000000000000002E-2</v>
       </c>
-      <c r="AF2">
-        <f>VLOOKUP(AF$1,'ISIC to BLS Map'!$A$1:$D$38,COLUMN('ISIC to BLS Map'!$D$1),FALSE)</f>
+      <c r="AG2">
+        <f>VLOOKUP(AG$1,'ISIC to BLS Map'!$A$1:$D$39,COLUMN('ISIC to BLS Map'!$D$1),FALSE)</f>
         <v>4.7E-2</v>
       </c>
-      <c r="AG2">
-        <f>VLOOKUP(AG$1,'ISIC to BLS Map'!$A$1:$D$38,COLUMN('ISIC to BLS Map'!$D$1),FALSE)</f>
+      <c r="AH2">
+        <f>VLOOKUP(AH$1,'ISIC to BLS Map'!$A$1:$D$39,COLUMN('ISIC to BLS Map'!$D$1),FALSE)</f>
         <v>0.03</v>
       </c>
-      <c r="AH2">
-        <f>VLOOKUP(AH$1,'ISIC to BLS Map'!$A$1:$D$38,COLUMN('ISIC to BLS Map'!$D$1),FALSE)</f>
+      <c r="AI2">
+        <f>VLOOKUP(AI$1,'ISIC to BLS Map'!$A$1:$D$39,COLUMN('ISIC to BLS Map'!$D$1),FALSE)</f>
         <v>0.30499999999999999</v>
       </c>
-      <c r="AI2">
-        <f>VLOOKUP(AI$1,'ISIC to BLS Map'!$A$1:$D$38,COLUMN('ISIC to BLS Map'!$D$1),FALSE)</f>
+      <c r="AJ2">
+        <f>VLOOKUP(AJ$1,'ISIC to BLS Map'!$A$1:$D$39,COLUMN('ISIC to BLS Map'!$D$1),FALSE)</f>
         <v>0.36599999999999999</v>
       </c>
-      <c r="AJ2">
-        <f>VLOOKUP(AJ$1,'ISIC to BLS Map'!$A$1:$D$38,COLUMN('ISIC to BLS Map'!$D$1),FALSE)</f>
+      <c r="AK2">
+        <f>VLOOKUP(AK$1,'ISIC to BLS Map'!$A$1:$D$39,COLUMN('ISIC to BLS Map'!$D$1),FALSE)</f>
         <v>7.9000000000000001E-2</v>
       </c>
-      <c r="AK2">
-        <f>VLOOKUP(AK$1,'ISIC to BLS Map'!$A$1:$D$38,COLUMN('ISIC to BLS Map'!$D$1),FALSE)</f>
+      <c r="AL2">
+        <f>VLOOKUP(AL$1,'ISIC to BLS Map'!$A$1:$D$39,COLUMN('ISIC to BLS Map'!$D$1),FALSE)</f>
         <v>7.400000000000001E-2</v>
       </c>
-      <c r="AL2">
-        <f>VLOOKUP(AL$1,'ISIC to BLS Map'!$A$1:$D$38,COLUMN('ISIC to BLS Map'!$D$1),FALSE)</f>
+      <c r="AM2">
+        <f>VLOOKUP(AM$1,'ISIC to BLS Map'!$A$1:$D$39,COLUMN('ISIC to BLS Map'!$D$1),FALSE)</f>
         <v>3.3000000000000002E-2</v>
       </c>
     </row>

--- a/InputData/io-model/URPbIC/Union Representation Perc by ISIC Code.xlsx
+++ b/InputData/io-model/URPbIC/Union Representation Perc by ISIC Code.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23530"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\CodeRepositories\eps-us\InputData\io-model\URPbIC\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7EC6CC0-D32D-45CD-8156-ABD0332C3D40}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF088B62-E7B5-40D0-8FD5-09D79EE24E3D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2070" yWindow="780" windowWidth="26295" windowHeight="16380" xr2:uid="{111598D9-CA0B-488C-B665-0CB52396764C}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{111598D9-CA0B-488C-B665-0CB52396764C}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="2" r:id="rId1"/>
@@ -18,7 +18,7 @@
     <sheet name="ISIC to BLS Map" sheetId="4" r:id="rId3"/>
     <sheet name="URPbIC" sheetId="3" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="191029" iterate="1" iterateDelta="1.0000000000000001E-5"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="163">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="171">
   <si>
     <t>Management, professional, and related occupations</t>
   </si>
@@ -314,12 +314,6 @@
     <t>ISIC 22</t>
   </si>
   <si>
-    <t>ISIC 23</t>
-  </si>
-  <si>
-    <t>ISIC 24</t>
-  </si>
-  <si>
     <t>ISIC 25</t>
   </si>
   <si>
@@ -341,9 +335,6 @@
     <t>ISIC 31T33</t>
   </si>
   <si>
-    <t>ISIC 35T39</t>
-  </si>
-  <si>
     <t>ISIC 41T43</t>
   </si>
   <si>
@@ -425,12 +416,6 @@
     <t>Rubber and plastic products</t>
   </si>
   <si>
-    <t>Other non-metallic mineral products</t>
-  </si>
-  <si>
-    <t>Basic metals</t>
-  </si>
-  <si>
     <t>Fabricated metal products</t>
   </si>
   <si>
@@ -452,9 +437,6 @@
     <t>Other manufacturing; repair and installation of machinery and equipment</t>
   </si>
   <si>
-    <t>Electricity, gas, water supply, sewerage, waste and remediation services</t>
-  </si>
-  <si>
     <t>Wholesale and retail trade; repair of motor vehicles</t>
   </si>
   <si>
@@ -525,6 +507,48 @@
   </si>
   <si>
     <t>Oil and gas extraction</t>
+  </si>
+  <si>
+    <t>ISIC 239</t>
+  </si>
+  <si>
+    <t>ISIC 231</t>
+  </si>
+  <si>
+    <t>Glass</t>
+  </si>
+  <si>
+    <t>Cement and other nometallic minerals</t>
+  </si>
+  <si>
+    <t>ISIC 241</t>
+  </si>
+  <si>
+    <t>Iron and steel</t>
+  </si>
+  <si>
+    <t>Other metals</t>
+  </si>
+  <si>
+    <t>ISIC 242</t>
+  </si>
+  <si>
+    <t>ISIC 351</t>
+  </si>
+  <si>
+    <t>ISIC 352T353</t>
+  </si>
+  <si>
+    <t>ISIC 36T39</t>
+  </si>
+  <si>
+    <t>Electricity generation and distribution</t>
+  </si>
+  <si>
+    <t>Energy pipelines and gas processing</t>
+  </si>
+  <si>
+    <t>Water and waste</t>
   </si>
 </sst>
 </file>
@@ -569,7 +593,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -588,13 +612,118 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="10">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -603,7 +732,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
@@ -640,6 +769,27 @@
       <alignment horizontal="right" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -2469,7 +2619,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BA20B78F-BFAE-4D2B-A715-7003FB965387}">
-  <dimension ref="A1:D39"/>
+  <dimension ref="A1:D43"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2483,24 +2633,24 @@
   <sheetData>
     <row r="1" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="9" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>152</v>
+        <v>146</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
       <c r="D1" s="14" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
         <v>83</v>
       </c>
       <c r="B2" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="C2" s="15" t="str">
         <f>'BLS Table 3'!A36</f>
@@ -2512,11 +2662,11 @@
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="5" t="s">
-        <v>160</v>
+      <c r="A3" s="16" t="s">
+        <v>154</v>
       </c>
       <c r="B3" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
       <c r="C3" s="15" t="str">
         <f>'BLS Table 3'!A38</f>
@@ -2527,12 +2677,12 @@
         <v>4.7E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="5" t="s">
-        <v>159</v>
+    <row r="4" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="17" t="s">
+        <v>153</v>
       </c>
       <c r="B4" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
       <c r="C4" s="15" t="str">
         <f>'BLS Table 3'!A38</f>
@@ -2548,7 +2698,7 @@
         <v>84</v>
       </c>
       <c r="B5" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="C5" s="15" t="str">
         <f>'BLS Table 3'!A38</f>
@@ -2564,7 +2714,7 @@
         <v>85</v>
       </c>
       <c r="B6" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="C6" s="15" t="str">
         <f>'BLS Table 3'!A38</f>
@@ -2580,7 +2730,7 @@
         <v>86</v>
       </c>
       <c r="B7" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="C7" s="15" t="str">
         <f>'BLS Table 3'!$A$42</f>
@@ -2596,7 +2746,7 @@
         <v>87</v>
       </c>
       <c r="B8" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="C8" s="15" t="str">
         <f>'BLS Table 3'!$A$42</f>
@@ -2612,7 +2762,7 @@
         <v>88</v>
       </c>
       <c r="B9" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="C9" s="15" t="str">
         <f>'BLS Table 3'!$A$42</f>
@@ -2628,7 +2778,7 @@
         <v>89</v>
       </c>
       <c r="B10" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="C10" s="15" t="str">
         <f>'BLS Table 3'!$A$42</f>
@@ -2639,12 +2789,12 @@
         <v>9.1999999999999998E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="5" t="s">
         <v>90</v>
       </c>
       <c r="B11" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="C11" s="15" t="str">
         <f>'BLS Table 3'!$A$42</f>
@@ -2656,11 +2806,11 @@
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="5" t="s">
-        <v>158</v>
+      <c r="A12" s="16" t="s">
+        <v>152</v>
       </c>
       <c r="B12" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="C12" s="15" t="str">
         <f>'BLS Table 3'!$A$42</f>
@@ -2671,12 +2821,12 @@
         <v>9.1999999999999998E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="5" t="s">
-        <v>155</v>
+    <row r="13" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="17" t="s">
+        <v>149</v>
       </c>
       <c r="B13" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
       <c r="C13" s="15" t="str">
         <f>'BLS Table 3'!$A$42</f>
@@ -2687,12 +2837,12 @@
         <v>9.1999999999999998E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="5" t="s">
         <v>91</v>
       </c>
       <c r="B14" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="C14" s="15" t="str">
         <f>'BLS Table 3'!$A$42</f>
@@ -2704,11 +2854,11 @@
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" s="5" t="s">
-        <v>92</v>
+      <c r="A15" s="16" t="s">
+        <v>158</v>
       </c>
       <c r="B15" t="s">
-        <v>129</v>
+        <v>159</v>
       </c>
       <c r="C15" s="15" t="str">
         <f>'BLS Table 3'!$A$41</f>
@@ -2719,12 +2869,12 @@
         <v>9.6000000000000002E-2</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" s="5" t="s">
-        <v>93</v>
+    <row r="16" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="17" t="s">
+        <v>157</v>
       </c>
       <c r="B16" t="s">
-        <v>130</v>
+        <v>160</v>
       </c>
       <c r="C16" s="15" t="str">
         <f>'BLS Table 3'!$A$41</f>
@@ -2736,11 +2886,11 @@
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" s="5" t="s">
-        <v>94</v>
+      <c r="A17" s="16" t="s">
+        <v>161</v>
       </c>
       <c r="B17" t="s">
-        <v>131</v>
+        <v>162</v>
       </c>
       <c r="C17" s="15" t="str">
         <f>'BLS Table 3'!$A$41</f>
@@ -2751,12 +2901,12 @@
         <v>9.6000000000000002E-2</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" s="5" t="s">
-        <v>95</v>
+    <row r="18" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="17" t="s">
+        <v>164</v>
       </c>
       <c r="B18" t="s">
-        <v>132</v>
+        <v>163</v>
       </c>
       <c r="C18" s="15" t="str">
         <f>'BLS Table 3'!$A$41</f>
@@ -2769,10 +2919,10 @@
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="5" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="B19" t="s">
-        <v>133</v>
+        <v>126</v>
       </c>
       <c r="C19" s="15" t="str">
         <f>'BLS Table 3'!$A$41</f>
@@ -2785,10 +2935,10 @@
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="5" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="B20" t="s">
-        <v>134</v>
+        <v>127</v>
       </c>
       <c r="C20" s="15" t="str">
         <f>'BLS Table 3'!$A$41</f>
@@ -2801,10 +2951,10 @@
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="5" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="B21" t="s">
-        <v>135</v>
+        <v>128</v>
       </c>
       <c r="C21" s="15" t="str">
         <f>'BLS Table 3'!$A$41</f>
@@ -2817,10 +2967,10 @@
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="5" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="B22" t="s">
-        <v>136</v>
+        <v>129</v>
       </c>
       <c r="C22" s="15" t="str">
         <f>'BLS Table 3'!$A$41</f>
@@ -2833,273 +2983,337 @@
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="5" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="B23" t="s">
-        <v>137</v>
+        <v>130</v>
       </c>
       <c r="C23" s="15" t="str">
+        <f>'BLS Table 3'!$A$41</f>
+        <v>Durable goods</v>
+      </c>
+      <c r="D23">
+        <f>VLOOKUP($C23,'BLS Table 3'!$A$3:$F$75,COLUMN('BLS Table 3'!$F$2),FALSE)/100</f>
+        <v>9.6000000000000002E-2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="B24" t="s">
+        <v>131</v>
+      </c>
+      <c r="C24" s="15" t="str">
+        <f>'BLS Table 3'!$A$41</f>
+        <v>Durable goods</v>
+      </c>
+      <c r="D24">
+        <f>VLOOKUP($C24,'BLS Table 3'!$A$3:$F$75,COLUMN('BLS Table 3'!$F$2),FALSE)/100</f>
+        <v>9.6000000000000002E-2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="B25" t="s">
+        <v>132</v>
+      </c>
+      <c r="C25" s="15" t="str">
         <f>'BLS Table 3'!A40</f>
         <v>Manufacturing</v>
       </c>
-      <c r="D23">
-        <f>VLOOKUP($C23,'BLS Table 3'!$A$3:$F$75,COLUMN('BLS Table 3'!$F$2),FALSE)/100</f>
+      <c r="D25">
+        <f>VLOOKUP($C25,'BLS Table 3'!$A$3:$F$75,COLUMN('BLS Table 3'!$F$2),FALSE)/100</f>
         <v>9.4E-2</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A24" s="5" t="s">
-        <v>101</v>
-      </c>
-      <c r="B24" t="s">
-        <v>138</v>
-      </c>
-      <c r="C24" s="15" t="str">
-        <f>'BLS Table 3'!A48</f>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" s="16" t="s">
+        <v>165</v>
+      </c>
+      <c r="B26" t="s">
+        <v>168</v>
+      </c>
+      <c r="C26" s="15" t="str">
+        <f>'BLS Table 3'!$A$48</f>
         <v>Utilities</v>
       </c>
-      <c r="D24">
-        <f>VLOOKUP($C24,'BLS Table 3'!$A$3:$F$75,COLUMN('BLS Table 3'!$F$2),FALSE)/100</f>
+      <c r="D26">
+        <f>VLOOKUP($C26,'BLS Table 3'!$A$3:$F$75,COLUMN('BLS Table 3'!$F$2),FALSE)/100</f>
         <v>0.24</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A25" s="5" t="s">
-        <v>102</v>
-      </c>
-      <c r="B25" t="s">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27" s="18" t="s">
+        <v>166</v>
+      </c>
+      <c r="B27" t="s">
+        <v>169</v>
+      </c>
+      <c r="C27" s="15" t="str">
+        <f>'BLS Table 3'!$A$48</f>
+        <v>Utilities</v>
+      </c>
+      <c r="D27">
+        <f>VLOOKUP($C27,'BLS Table 3'!$A$3:$F$75,COLUMN('BLS Table 3'!$F$2),FALSE)/100</f>
+        <v>0.24</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="17" t="s">
+        <v>167</v>
+      </c>
+      <c r="B28" t="s">
+        <v>170</v>
+      </c>
+      <c r="C28" s="15" t="str">
+        <f>'BLS Table 3'!$A$48</f>
+        <v>Utilities</v>
+      </c>
+      <c r="D28">
+        <f>VLOOKUP($C28,'BLS Table 3'!$A$3:$F$75,COLUMN('BLS Table 3'!$F$2),FALSE)/100</f>
+        <v>0.24</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="B29" t="s">
         <v>34</v>
       </c>
-      <c r="C25" s="15" t="str">
+      <c r="C29" s="15" t="str">
         <f>'BLS Table 3'!A39</f>
         <v>Construction</v>
       </c>
-      <c r="D25">
-        <f>VLOOKUP($C25,'BLS Table 3'!$A$3:$F$75,COLUMN('BLS Table 3'!$F$2),FALSE)/100</f>
+      <c r="D29">
+        <f>VLOOKUP($C29,'BLS Table 3'!$A$3:$F$75,COLUMN('BLS Table 3'!$F$2),FALSE)/100</f>
         <v>0.13600000000000001</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A26" s="5" t="s">
-        <v>103</v>
-      </c>
-      <c r="B26" t="s">
-        <v>139</v>
-      </c>
-      <c r="C26" s="15" t="str">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="B30" t="s">
+        <v>133</v>
+      </c>
+      <c r="C30" s="15" t="str">
         <f>'BLS Table 3'!A43</f>
         <v>Wholesale and retail trade</v>
       </c>
-      <c r="D26">
-        <f>VLOOKUP($C26,'BLS Table 3'!$A$3:$F$75,COLUMN('BLS Table 3'!$F$2),FALSE)/100</f>
+      <c r="D30">
+        <f>VLOOKUP($C30,'BLS Table 3'!$A$3:$F$75,COLUMN('BLS Table 3'!$F$2),FALSE)/100</f>
         <v>4.8000000000000001E-2</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A27" s="5" t="s">
-        <v>104</v>
-      </c>
-      <c r="B27" t="s">
-        <v>140</v>
-      </c>
-      <c r="C27" s="15" t="str">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A31" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="B31" t="s">
+        <v>134</v>
+      </c>
+      <c r="C31" s="15" t="str">
         <f>'BLS Table 3'!A47</f>
         <v>Transportation and warehousing</v>
       </c>
-      <c r="D27">
-        <f>VLOOKUP($C27,'BLS Table 3'!$A$3:$F$75,COLUMN('BLS Table 3'!$F$2),FALSE)/100</f>
+      <c r="D31">
+        <f>VLOOKUP($C31,'BLS Table 3'!$A$3:$F$75,COLUMN('BLS Table 3'!$F$2),FALSE)/100</f>
         <v>0.17600000000000002</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A28" s="5" t="s">
-        <v>105</v>
-      </c>
-      <c r="B28" t="s">
-        <v>141</v>
-      </c>
-      <c r="C28" s="15" t="str">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A32" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="B32" t="s">
+        <v>135</v>
+      </c>
+      <c r="C32" s="15" t="str">
         <f>'BLS Table 3'!A67</f>
         <v>Accommodation and food services</v>
       </c>
-      <c r="D28">
-        <f>VLOOKUP($C28,'BLS Table 3'!$A$3:$F$75,COLUMN('BLS Table 3'!$F$2),FALSE)/100</f>
+      <c r="D32">
+        <f>VLOOKUP($C32,'BLS Table 3'!$A$3:$F$75,COLUMN('BLS Table 3'!$F$2),FALSE)/100</f>
         <v>2.6000000000000002E-2</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A29" s="5" t="s">
-        <v>106</v>
-      </c>
-      <c r="B29" t="s">
-        <v>142</v>
-      </c>
-      <c r="C29" s="15" t="str">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A33" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="B33" t="s">
+        <v>136</v>
+      </c>
+      <c r="C33" s="15" t="str">
         <f>'BLS Table 3'!A49</f>
         <v>Information(3)</v>
       </c>
-      <c r="D29">
-        <f>VLOOKUP($C29,'BLS Table 3'!$A$3:$F$75,COLUMN('BLS Table 3'!$F$2),FALSE)/100</f>
+      <c r="D33">
+        <f>VLOOKUP($C33,'BLS Table 3'!$A$3:$F$75,COLUMN('BLS Table 3'!$F$2),FALSE)/100</f>
         <v>0.11199999999999999</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A30" s="5" t="s">
-        <v>107</v>
-      </c>
-      <c r="B30" t="s">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A34" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="B34" t="s">
         <v>48</v>
       </c>
-      <c r="C30" s="15" t="str">
+      <c r="C34" s="15" t="str">
         <f>'BLS Table 3'!A53</f>
         <v>Telecommunications</v>
       </c>
-      <c r="D30">
-        <f>VLOOKUP($C30,'BLS Table 3'!$A$3:$F$75,COLUMN('BLS Table 3'!$F$2),FALSE)/100</f>
+      <c r="D34">
+        <f>VLOOKUP($C34,'BLS Table 3'!$A$3:$F$75,COLUMN('BLS Table 3'!$F$2),FALSE)/100</f>
         <v>0.153</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A31" s="5" t="s">
-        <v>108</v>
-      </c>
-      <c r="B31" t="s">
-        <v>143</v>
-      </c>
-      <c r="C31" s="15" t="str">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A35" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="B35" t="s">
+        <v>137</v>
+      </c>
+      <c r="C35" s="15" t="str">
         <f>'BLS Table 3'!A60</f>
         <v>Professional and technical services</v>
       </c>
-      <c r="D31">
-        <f>VLOOKUP($C31,'BLS Table 3'!$A$3:$F$75,COLUMN('BLS Table 3'!$F$2),FALSE)/100</f>
+      <c r="D35">
+        <f>VLOOKUP($C35,'BLS Table 3'!$A$3:$F$75,COLUMN('BLS Table 3'!$F$2),FALSE)/100</f>
         <v>2.2000000000000002E-2</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A32" s="5" t="s">
-        <v>109</v>
-      </c>
-      <c r="B32" t="s">
-        <v>144</v>
-      </c>
-      <c r="C32" s="15" t="str">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A36" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="B36" t="s">
+        <v>138</v>
+      </c>
+      <c r="C36" s="15" t="str">
         <f>'BLS Table 3'!A55</f>
         <v>Finance and insurance</v>
       </c>
-      <c r="D32">
-        <f>VLOOKUP($C32,'BLS Table 3'!$A$3:$F$75,COLUMN('BLS Table 3'!$F$2),FALSE)/100</f>
+      <c r="D36">
+        <f>VLOOKUP($C36,'BLS Table 3'!$A$3:$F$75,COLUMN('BLS Table 3'!$F$2),FALSE)/100</f>
         <v>1.8000000000000002E-2</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A33" s="5" t="s">
-        <v>110</v>
-      </c>
-      <c r="B33" t="s">
-        <v>145</v>
-      </c>
-      <c r="C33" s="15" t="str">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A37" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="B37" t="s">
+        <v>139</v>
+      </c>
+      <c r="C37" s="15" t="str">
         <f>'BLS Table 3'!A58</f>
         <v>Real estate and rental and leasing</v>
       </c>
-      <c r="D33">
-        <f>VLOOKUP($C33,'BLS Table 3'!$A$3:$F$75,COLUMN('BLS Table 3'!$F$2),FALSE)/100</f>
+      <c r="D37">
+        <f>VLOOKUP($C37,'BLS Table 3'!$A$3:$F$75,COLUMN('BLS Table 3'!$F$2),FALSE)/100</f>
         <v>4.7E-2</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A34" s="5" t="s">
-        <v>111</v>
-      </c>
-      <c r="B34" t="s">
-        <v>146</v>
-      </c>
-      <c r="C34" s="15" t="str">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A38" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="B38" t="s">
+        <v>140</v>
+      </c>
+      <c r="C38" s="15" t="str">
         <f>'BLS Table 3'!A59</f>
         <v>Professional and business services</v>
       </c>
-      <c r="D34">
-        <f>VLOOKUP($C34,'BLS Table 3'!$A$3:$F$75,COLUMN('BLS Table 3'!$F$2),FALSE)/100</f>
+      <c r="D38">
+        <f>VLOOKUP($C38,'BLS Table 3'!$A$3:$F$75,COLUMN('BLS Table 3'!$F$2),FALSE)/100</f>
         <v>0.03</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A35" s="5" t="s">
-        <v>112</v>
-      </c>
-      <c r="B35" t="s">
-        <v>147</v>
-      </c>
-      <c r="C35" s="15" t="str">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A39" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="B39" t="s">
+        <v>141</v>
+      </c>
+      <c r="C39" s="15" t="str">
         <f>'BLS Table 3'!A73</f>
         <v>Federal government</v>
       </c>
-      <c r="D35">
-        <f>VLOOKUP($C35,'BLS Table 3'!$A$3:$F$75,COLUMN('BLS Table 3'!$F$2),FALSE)/100</f>
+      <c r="D39">
+        <f>VLOOKUP($C39,'BLS Table 3'!$A$3:$F$75,COLUMN('BLS Table 3'!$F$2),FALSE)/100</f>
         <v>0.30499999999999999</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A36" s="5" t="s">
-        <v>113</v>
-      </c>
-      <c r="B36" t="s">
-        <v>148</v>
-      </c>
-      <c r="C36" s="15" t="str">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A40" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="B40" t="s">
+        <v>142</v>
+      </c>
+      <c r="C40" s="15" t="str">
         <f>'BLS Table 3'!A14</f>
         <v>Education, training, and library occupations</v>
       </c>
-      <c r="D36">
-        <f>VLOOKUP($C36,'BLS Table 3'!$A$3:$F$75,COLUMN('BLS Table 3'!$F$2),FALSE)/100</f>
+      <c r="D40">
+        <f>VLOOKUP($C40,'BLS Table 3'!$A$3:$F$75,COLUMN('BLS Table 3'!$F$2),FALSE)/100</f>
         <v>0.36599999999999999</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A37" s="5" t="s">
-        <v>114</v>
-      </c>
-      <c r="B37" t="s">
-        <v>149</v>
-      </c>
-      <c r="C37" s="15" t="str">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A41" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="B41" t="s">
+        <v>143</v>
+      </c>
+      <c r="C41" s="15" t="str">
         <f>'BLS Table 3'!A64</f>
         <v>Health care and social assistance</v>
       </c>
-      <c r="D37">
-        <f>VLOOKUP($C37,'BLS Table 3'!$A$3:$F$75,COLUMN('BLS Table 3'!$F$2),FALSE)/100</f>
+      <c r="D41">
+        <f>VLOOKUP($C41,'BLS Table 3'!$A$3:$F$75,COLUMN('BLS Table 3'!$F$2),FALSE)/100</f>
         <v>7.9000000000000001E-2</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A38" s="5" t="s">
-        <v>115</v>
-      </c>
-      <c r="B38" t="s">
-        <v>150</v>
-      </c>
-      <c r="C38" s="15" t="str">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A42" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="B42" t="s">
+        <v>144</v>
+      </c>
+      <c r="C42" s="15" t="str">
         <f>'BLS Table 3'!A66</f>
         <v>Arts, entertainment, and recreation</v>
       </c>
-      <c r="D38">
-        <f>VLOOKUP($C38,'BLS Table 3'!$A$3:$F$75,COLUMN('BLS Table 3'!$F$2),FALSE)/100</f>
+      <c r="D42">
+        <f>VLOOKUP($C42,'BLS Table 3'!$A$3:$F$75,COLUMN('BLS Table 3'!$F$2),FALSE)/100</f>
         <v>7.400000000000001E-2</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A39" s="5" t="s">
-        <v>116</v>
-      </c>
-      <c r="B39" t="s">
-        <v>151</v>
-      </c>
-      <c r="C39" s="15" t="str">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A43" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="B43" t="s">
+        <v>145</v>
+      </c>
+      <c r="C43" s="15" t="str">
         <f>'BLS Table 3'!A70</f>
         <v>Other services(3)</v>
       </c>
-      <c r="D39">
-        <f>VLOOKUP($C39,'BLS Table 3'!$A$3:$F$75,COLUMN('BLS Table 3'!$F$2),FALSE)/100</f>
+      <c r="D43">
+        <f>VLOOKUP($C43,'BLS Table 3'!$A$3:$F$75,COLUMN('BLS Table 3'!$F$2),FALSE)/100</f>
         <v>3.3000000000000002E-2</v>
       </c>
     </row>
@@ -3113,28 +3327,28 @@
   <sheetPr>
     <tabColor theme="4" tint="-0.249977111117893"/>
   </sheetPr>
-  <dimension ref="A1:AM2"/>
+  <dimension ref="A1:AQ2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="33.28515625" customWidth="1"/>
-    <col min="2" max="39" width="11.5703125" customWidth="1"/>
+    <col min="2" max="43" width="11.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:39" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:43" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="B1" s="8" t="s">
         <v>83</v>
       </c>
-      <c r="C1" s="8" t="s">
-        <v>160</v>
-      </c>
-      <c r="D1" s="8" t="s">
-        <v>159</v>
+      <c r="C1" s="19" t="s">
+        <v>154</v>
+      </c>
+      <c r="D1" s="20" t="s">
+        <v>153</v>
       </c>
       <c r="E1" s="8" t="s">
         <v>84</v>
@@ -3157,245 +3371,273 @@
       <c r="K1" s="8" t="s">
         <v>90</v>
       </c>
-      <c r="L1" s="8" t="s">
-        <v>158</v>
-      </c>
-      <c r="M1" s="8" t="s">
-        <v>155</v>
+      <c r="L1" s="19" t="s">
+        <v>152</v>
+      </c>
+      <c r="M1" s="20" t="s">
+        <v>149</v>
       </c>
       <c r="N1" s="8" t="s">
         <v>91</v>
       </c>
-      <c r="O1" s="8" t="s">
+      <c r="O1" s="19" t="s">
+        <v>158</v>
+      </c>
+      <c r="P1" s="20" t="s">
+        <v>157</v>
+      </c>
+      <c r="Q1" s="19" t="s">
+        <v>161</v>
+      </c>
+      <c r="R1" s="20" t="s">
+        <v>164</v>
+      </c>
+      <c r="S1" s="8" t="s">
         <v>92</v>
       </c>
-      <c r="P1" s="8" t="s">
+      <c r="T1" s="8" t="s">
         <v>93</v>
       </c>
-      <c r="Q1" s="8" t="s">
+      <c r="U1" s="8" t="s">
         <v>94</v>
       </c>
-      <c r="R1" s="8" t="s">
+      <c r="V1" s="8" t="s">
         <v>95</v>
       </c>
-      <c r="S1" s="8" t="s">
+      <c r="W1" s="8" t="s">
         <v>96</v>
       </c>
-      <c r="T1" s="8" t="s">
+      <c r="X1" s="8" t="s">
         <v>97</v>
       </c>
-      <c r="U1" s="8" t="s">
+      <c r="Y1" s="8" t="s">
         <v>98</v>
       </c>
-      <c r="V1" s="8" t="s">
+      <c r="Z1" s="19" t="s">
+        <v>165</v>
+      </c>
+      <c r="AA1" s="23" t="s">
+        <v>166</v>
+      </c>
+      <c r="AB1" s="20" t="s">
+        <v>167</v>
+      </c>
+      <c r="AC1" s="8" t="s">
         <v>99</v>
       </c>
-      <c r="W1" s="8" t="s">
+      <c r="AD1" s="8" t="s">
         <v>100</v>
       </c>
-      <c r="X1" s="8" t="s">
+      <c r="AE1" s="8" t="s">
         <v>101</v>
       </c>
-      <c r="Y1" s="8" t="s">
+      <c r="AF1" s="8" t="s">
         <v>102</v>
       </c>
-      <c r="Z1" s="8" t="s">
+      <c r="AG1" s="8" t="s">
         <v>103</v>
       </c>
-      <c r="AA1" s="8" t="s">
+      <c r="AH1" s="8" t="s">
         <v>104</v>
       </c>
-      <c r="AB1" s="8" t="s">
+      <c r="AI1" s="8" t="s">
         <v>105</v>
       </c>
-      <c r="AC1" s="8" t="s">
+      <c r="AJ1" s="8" t="s">
         <v>106</v>
       </c>
-      <c r="AD1" s="8" t="s">
+      <c r="AK1" s="8" t="s">
         <v>107</v>
       </c>
-      <c r="AE1" s="8" t="s">
+      <c r="AL1" s="8" t="s">
         <v>108</v>
       </c>
-      <c r="AF1" s="8" t="s">
+      <c r="AM1" s="8" t="s">
         <v>109</v>
       </c>
-      <c r="AG1" s="8" t="s">
+      <c r="AN1" s="8" t="s">
         <v>110</v>
       </c>
-      <c r="AH1" s="8" t="s">
+      <c r="AO1" s="8" t="s">
         <v>111</v>
       </c>
-      <c r="AI1" s="8" t="s">
+      <c r="AP1" s="8" t="s">
         <v>112</v>
       </c>
-      <c r="AJ1" s="8" t="s">
+      <c r="AQ1" s="8" t="s">
         <v>113</v>
       </c>
-      <c r="AK1" s="8" t="s">
-        <v>114</v>
-      </c>
-      <c r="AL1" s="8" t="s">
+    </row>
+    <row r="2" spans="1:43" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
         <v>115</v>
       </c>
-      <c r="AM1" s="8" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="2" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>118</v>
-      </c>
       <c r="B2">
-        <f>VLOOKUP(B$1,'ISIC to BLS Map'!$A$1:$D$39,COLUMN('ISIC to BLS Map'!$D$1),FALSE)</f>
+        <f>VLOOKUP(B$1,'ISIC to BLS Map'!$A$1:$D$43,COLUMN('ISIC to BLS Map'!$D$1),FALSE)</f>
         <v>2.7999999999999997E-2</v>
       </c>
-      <c r="C2">
-        <f>VLOOKUP(C$1,'ISIC to BLS Map'!$A$1:$D$39,COLUMN('ISIC to BLS Map'!$D$1),FALSE)</f>
+      <c r="C2" s="21">
+        <f>VLOOKUP(C$1,'ISIC to BLS Map'!$A$1:$D$43,COLUMN('ISIC to BLS Map'!$D$1),FALSE)</f>
         <v>4.7E-2</v>
       </c>
-      <c r="D2">
-        <f>VLOOKUP(D$1,'ISIC to BLS Map'!$A$1:$D$39,COLUMN('ISIC to BLS Map'!$D$1),FALSE)</f>
+      <c r="D2" s="22">
+        <f>VLOOKUP(D$1,'ISIC to BLS Map'!$A$1:$D$43,COLUMN('ISIC to BLS Map'!$D$1),FALSE)</f>
         <v>4.7E-2</v>
       </c>
       <c r="E2">
-        <f>VLOOKUP(E$1,'ISIC to BLS Map'!$A$1:$D$39,COLUMN('ISIC to BLS Map'!$D$1),FALSE)</f>
+        <f>VLOOKUP(E$1,'ISIC to BLS Map'!$A$1:$D$43,COLUMN('ISIC to BLS Map'!$D$1),FALSE)</f>
         <v>4.7E-2</v>
       </c>
       <c r="F2">
-        <f>VLOOKUP(F$1,'ISIC to BLS Map'!$A$1:$D$39,COLUMN('ISIC to BLS Map'!$D$1),FALSE)</f>
+        <f>VLOOKUP(F$1,'ISIC to BLS Map'!$A$1:$D$43,COLUMN('ISIC to BLS Map'!$D$1),FALSE)</f>
         <v>4.7E-2</v>
       </c>
       <c r="G2">
-        <f>VLOOKUP(G$1,'ISIC to BLS Map'!$A$1:$D$39,COLUMN('ISIC to BLS Map'!$D$1),FALSE)</f>
+        <f>VLOOKUP(G$1,'ISIC to BLS Map'!$A$1:$D$43,COLUMN('ISIC to BLS Map'!$D$1),FALSE)</f>
         <v>9.1999999999999998E-2</v>
       </c>
       <c r="H2">
-        <f>VLOOKUP(H$1,'ISIC to BLS Map'!$A$1:$D$39,COLUMN('ISIC to BLS Map'!$D$1),FALSE)</f>
+        <f>VLOOKUP(H$1,'ISIC to BLS Map'!$A$1:$D$43,COLUMN('ISIC to BLS Map'!$D$1),FALSE)</f>
         <v>9.1999999999999998E-2</v>
       </c>
       <c r="I2">
-        <f>VLOOKUP(I$1,'ISIC to BLS Map'!$A$1:$D$39,COLUMN('ISIC to BLS Map'!$D$1),FALSE)</f>
+        <f>VLOOKUP(I$1,'ISIC to BLS Map'!$A$1:$D$43,COLUMN('ISIC to BLS Map'!$D$1),FALSE)</f>
         <v>9.1999999999999998E-2</v>
       </c>
       <c r="J2">
-        <f>VLOOKUP(J$1,'ISIC to BLS Map'!$A$1:$D$39,COLUMN('ISIC to BLS Map'!$D$1),FALSE)</f>
+        <f>VLOOKUP(J$1,'ISIC to BLS Map'!$A$1:$D$43,COLUMN('ISIC to BLS Map'!$D$1),FALSE)</f>
         <v>9.1999999999999998E-2</v>
       </c>
       <c r="K2">
-        <f>VLOOKUP(K$1,'ISIC to BLS Map'!$A$1:$D$39,COLUMN('ISIC to BLS Map'!$D$1),FALSE)</f>
+        <f>VLOOKUP(K$1,'ISIC to BLS Map'!$A$1:$D$43,COLUMN('ISIC to BLS Map'!$D$1),FALSE)</f>
         <v>9.1999999999999998E-2</v>
       </c>
-      <c r="L2">
-        <f>VLOOKUP(L$1,'ISIC to BLS Map'!$A$1:$D$39,COLUMN('ISIC to BLS Map'!$D$1),FALSE)</f>
+      <c r="L2" s="21">
+        <f>VLOOKUP(L$1,'ISIC to BLS Map'!$A$1:$D$43,COLUMN('ISIC to BLS Map'!$D$1),FALSE)</f>
         <v>9.1999999999999998E-2</v>
       </c>
-      <c r="M2">
-        <f>VLOOKUP(M$1,'ISIC to BLS Map'!$A$1:$D$39,COLUMN('ISIC to BLS Map'!$D$1),FALSE)</f>
+      <c r="M2" s="22">
+        <f>VLOOKUP(M$1,'ISIC to BLS Map'!$A$1:$D$43,COLUMN('ISIC to BLS Map'!$D$1),FALSE)</f>
         <v>9.1999999999999998E-2</v>
       </c>
       <c r="N2">
-        <f>VLOOKUP(N$1,'ISIC to BLS Map'!$A$1:$D$39,COLUMN('ISIC to BLS Map'!$D$1),FALSE)</f>
+        <f>VLOOKUP(N$1,'ISIC to BLS Map'!$A$1:$D$43,COLUMN('ISIC to BLS Map'!$D$1),FALSE)</f>
         <v>9.1999999999999998E-2</v>
       </c>
-      <c r="O2">
-        <f>VLOOKUP(O$1,'ISIC to BLS Map'!$A$1:$D$39,COLUMN('ISIC to BLS Map'!$D$1),FALSE)</f>
+      <c r="O2" s="21">
+        <f>VLOOKUP(O$1,'ISIC to BLS Map'!$A$1:$D$43,COLUMN('ISIC to BLS Map'!$D$1),FALSE)</f>
         <v>9.6000000000000002E-2</v>
       </c>
-      <c r="P2">
-        <f>VLOOKUP(P$1,'ISIC to BLS Map'!$A$1:$D$39,COLUMN('ISIC to BLS Map'!$D$1),FALSE)</f>
+      <c r="P2" s="22">
+        <f>VLOOKUP(P$1,'ISIC to BLS Map'!$A$1:$D$43,COLUMN('ISIC to BLS Map'!$D$1),FALSE)</f>
         <v>9.6000000000000002E-2</v>
       </c>
-      <c r="Q2">
-        <f>VLOOKUP(Q$1,'ISIC to BLS Map'!$A$1:$D$39,COLUMN('ISIC to BLS Map'!$D$1),FALSE)</f>
+      <c r="Q2" s="21">
+        <f>VLOOKUP(Q$1,'ISIC to BLS Map'!$A$1:$D$43,COLUMN('ISIC to BLS Map'!$D$1),FALSE)</f>
         <v>9.6000000000000002E-2</v>
       </c>
-      <c r="R2">
-        <f>VLOOKUP(R$1,'ISIC to BLS Map'!$A$1:$D$39,COLUMN('ISIC to BLS Map'!$D$1),FALSE)</f>
+      <c r="R2" s="22">
+        <f>VLOOKUP(R$1,'ISIC to BLS Map'!$A$1:$D$43,COLUMN('ISIC to BLS Map'!$D$1),FALSE)</f>
         <v>9.6000000000000002E-2</v>
       </c>
       <c r="S2">
-        <f>VLOOKUP(S$1,'ISIC to BLS Map'!$A$1:$D$39,COLUMN('ISIC to BLS Map'!$D$1),FALSE)</f>
+        <f>VLOOKUP(S$1,'ISIC to BLS Map'!$A$1:$D$43,COLUMN('ISIC to BLS Map'!$D$1),FALSE)</f>
         <v>9.6000000000000002E-2</v>
       </c>
       <c r="T2">
-        <f>VLOOKUP(T$1,'ISIC to BLS Map'!$A$1:$D$39,COLUMN('ISIC to BLS Map'!$D$1),FALSE)</f>
+        <f>VLOOKUP(T$1,'ISIC to BLS Map'!$A$1:$D$43,COLUMN('ISIC to BLS Map'!$D$1),FALSE)</f>
         <v>9.6000000000000002E-2</v>
       </c>
       <c r="U2">
-        <f>VLOOKUP(U$1,'ISIC to BLS Map'!$A$1:$D$39,COLUMN('ISIC to BLS Map'!$D$1),FALSE)</f>
+        <f>VLOOKUP(U$1,'ISIC to BLS Map'!$A$1:$D$43,COLUMN('ISIC to BLS Map'!$D$1),FALSE)</f>
         <v>9.6000000000000002E-2</v>
       </c>
       <c r="V2">
-        <f>VLOOKUP(V$1,'ISIC to BLS Map'!$A$1:$D$39,COLUMN('ISIC to BLS Map'!$D$1),FALSE)</f>
+        <f>VLOOKUP(V$1,'ISIC to BLS Map'!$A$1:$D$43,COLUMN('ISIC to BLS Map'!$D$1),FALSE)</f>
         <v>9.6000000000000002E-2</v>
       </c>
       <c r="W2">
-        <f>VLOOKUP(W$1,'ISIC to BLS Map'!$A$1:$D$39,COLUMN('ISIC to BLS Map'!$D$1),FALSE)</f>
+        <f>VLOOKUP(W$1,'ISIC to BLS Map'!$A$1:$D$43,COLUMN('ISIC to BLS Map'!$D$1),FALSE)</f>
+        <v>9.6000000000000002E-2</v>
+      </c>
+      <c r="X2">
+        <f>VLOOKUP(X$1,'ISIC to BLS Map'!$A$1:$D$43,COLUMN('ISIC to BLS Map'!$D$1),FALSE)</f>
+        <v>9.6000000000000002E-2</v>
+      </c>
+      <c r="Y2">
+        <f>VLOOKUP(Y$1,'ISIC to BLS Map'!$A$1:$D$43,COLUMN('ISIC to BLS Map'!$D$1),FALSE)</f>
         <v>9.4E-2</v>
       </c>
-      <c r="X2">
-        <f>VLOOKUP(X$1,'ISIC to BLS Map'!$A$1:$D$39,COLUMN('ISIC to BLS Map'!$D$1),FALSE)</f>
+      <c r="Z2" s="21">
+        <f>VLOOKUP(Z$1,'ISIC to BLS Map'!$A$1:$D$43,COLUMN('ISIC to BLS Map'!$D$1),FALSE)</f>
         <v>0.24</v>
       </c>
-      <c r="Y2">
-        <f>VLOOKUP(Y$1,'ISIC to BLS Map'!$A$1:$D$39,COLUMN('ISIC to BLS Map'!$D$1),FALSE)</f>
+      <c r="AA2" s="24">
+        <f>VLOOKUP(AA$1,'ISIC to BLS Map'!$A$1:$D$43,COLUMN('ISIC to BLS Map'!$D$1),FALSE)</f>
+        <v>0.24</v>
+      </c>
+      <c r="AB2" s="22">
+        <f>VLOOKUP(AB$1,'ISIC to BLS Map'!$A$1:$D$43,COLUMN('ISIC to BLS Map'!$D$1),FALSE)</f>
+        <v>0.24</v>
+      </c>
+      <c r="AC2">
+        <f>VLOOKUP(AC$1,'ISIC to BLS Map'!$A$1:$D$43,COLUMN('ISIC to BLS Map'!$D$1),FALSE)</f>
         <v>0.13600000000000001</v>
       </c>
-      <c r="Z2">
-        <f>VLOOKUP(Z$1,'ISIC to BLS Map'!$A$1:$D$39,COLUMN('ISIC to BLS Map'!$D$1),FALSE)</f>
+      <c r="AD2">
+        <f>VLOOKUP(AD$1,'ISIC to BLS Map'!$A$1:$D$43,COLUMN('ISIC to BLS Map'!$D$1),FALSE)</f>
         <v>4.8000000000000001E-2</v>
       </c>
-      <c r="AA2">
-        <f>VLOOKUP(AA$1,'ISIC to BLS Map'!$A$1:$D$39,COLUMN('ISIC to BLS Map'!$D$1),FALSE)</f>
+      <c r="AE2">
+        <f>VLOOKUP(AE$1,'ISIC to BLS Map'!$A$1:$D$43,COLUMN('ISIC to BLS Map'!$D$1),FALSE)</f>
         <v>0.17600000000000002</v>
       </c>
-      <c r="AB2">
-        <f>VLOOKUP(AB$1,'ISIC to BLS Map'!$A$1:$D$39,COLUMN('ISIC to BLS Map'!$D$1),FALSE)</f>
+      <c r="AF2">
+        <f>VLOOKUP(AF$1,'ISIC to BLS Map'!$A$1:$D$43,COLUMN('ISIC to BLS Map'!$D$1),FALSE)</f>
         <v>2.6000000000000002E-2</v>
       </c>
-      <c r="AC2">
-        <f>VLOOKUP(AC$1,'ISIC to BLS Map'!$A$1:$D$39,COLUMN('ISIC to BLS Map'!$D$1),FALSE)</f>
+      <c r="AG2">
+        <f>VLOOKUP(AG$1,'ISIC to BLS Map'!$A$1:$D$43,COLUMN('ISIC to BLS Map'!$D$1),FALSE)</f>
         <v>0.11199999999999999</v>
       </c>
-      <c r="AD2">
-        <f>VLOOKUP(AD$1,'ISIC to BLS Map'!$A$1:$D$39,COLUMN('ISIC to BLS Map'!$D$1),FALSE)</f>
+      <c r="AH2">
+        <f>VLOOKUP(AH$1,'ISIC to BLS Map'!$A$1:$D$43,COLUMN('ISIC to BLS Map'!$D$1),FALSE)</f>
         <v>0.153</v>
       </c>
-      <c r="AE2">
-        <f>VLOOKUP(AE$1,'ISIC to BLS Map'!$A$1:$D$39,COLUMN('ISIC to BLS Map'!$D$1),FALSE)</f>
+      <c r="AI2">
+        <f>VLOOKUP(AI$1,'ISIC to BLS Map'!$A$1:$D$43,COLUMN('ISIC to BLS Map'!$D$1),FALSE)</f>
         <v>2.2000000000000002E-2</v>
       </c>
-      <c r="AF2">
-        <f>VLOOKUP(AF$1,'ISIC to BLS Map'!$A$1:$D$39,COLUMN('ISIC to BLS Map'!$D$1),FALSE)</f>
+      <c r="AJ2">
+        <f>VLOOKUP(AJ$1,'ISIC to BLS Map'!$A$1:$D$43,COLUMN('ISIC to BLS Map'!$D$1),FALSE)</f>
         <v>1.8000000000000002E-2</v>
       </c>
-      <c r="AG2">
-        <f>VLOOKUP(AG$1,'ISIC to BLS Map'!$A$1:$D$39,COLUMN('ISIC to BLS Map'!$D$1),FALSE)</f>
+      <c r="AK2">
+        <f>VLOOKUP(AK$1,'ISIC to BLS Map'!$A$1:$D$43,COLUMN('ISIC to BLS Map'!$D$1),FALSE)</f>
         <v>4.7E-2</v>
       </c>
-      <c r="AH2">
-        <f>VLOOKUP(AH$1,'ISIC to BLS Map'!$A$1:$D$39,COLUMN('ISIC to BLS Map'!$D$1),FALSE)</f>
+      <c r="AL2">
+        <f>VLOOKUP(AL$1,'ISIC to BLS Map'!$A$1:$D$43,COLUMN('ISIC to BLS Map'!$D$1),FALSE)</f>
         <v>0.03</v>
       </c>
-      <c r="AI2">
-        <f>VLOOKUP(AI$1,'ISIC to BLS Map'!$A$1:$D$39,COLUMN('ISIC to BLS Map'!$D$1),FALSE)</f>
+      <c r="AM2">
+        <f>VLOOKUP(AM$1,'ISIC to BLS Map'!$A$1:$D$43,COLUMN('ISIC to BLS Map'!$D$1),FALSE)</f>
         <v>0.30499999999999999</v>
       </c>
-      <c r="AJ2">
-        <f>VLOOKUP(AJ$1,'ISIC to BLS Map'!$A$1:$D$39,COLUMN('ISIC to BLS Map'!$D$1),FALSE)</f>
+      <c r="AN2">
+        <f>VLOOKUP(AN$1,'ISIC to BLS Map'!$A$1:$D$43,COLUMN('ISIC to BLS Map'!$D$1),FALSE)</f>
         <v>0.36599999999999999</v>
       </c>
-      <c r="AK2">
-        <f>VLOOKUP(AK$1,'ISIC to BLS Map'!$A$1:$D$39,COLUMN('ISIC to BLS Map'!$D$1),FALSE)</f>
+      <c r="AO2">
+        <f>VLOOKUP(AO$1,'ISIC to BLS Map'!$A$1:$D$43,COLUMN('ISIC to BLS Map'!$D$1),FALSE)</f>
         <v>7.9000000000000001E-2</v>
       </c>
-      <c r="AL2">
-        <f>VLOOKUP(AL$1,'ISIC to BLS Map'!$A$1:$D$39,COLUMN('ISIC to BLS Map'!$D$1),FALSE)</f>
+      <c r="AP2">
+        <f>VLOOKUP(AP$1,'ISIC to BLS Map'!$A$1:$D$43,COLUMN('ISIC to BLS Map'!$D$1),FALSE)</f>
         <v>7.400000000000001E-2</v>
       </c>
-      <c r="AM2">
-        <f>VLOOKUP(AM$1,'ISIC to BLS Map'!$A$1:$D$39,COLUMN('ISIC to BLS Map'!$D$1),FALSE)</f>
+      <c r="AQ2">
+        <f>VLOOKUP(AQ$1,'ISIC to BLS Map'!$A$1:$D$43,COLUMN('ISIC to BLS Map'!$D$1),FALSE)</f>
         <v>3.3000000000000002E-2</v>
       </c>
     </row>

--- a/InputData/io-model/URPbIC/Union Representation Perc by ISIC Code.xlsx
+++ b/InputData/io-model/URPbIC/Union Representation Perc by ISIC Code.xlsx
@@ -1,21 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23530"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MeganM\Documents\eps-eu\InputData\io-model\URPbIC\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\CodeRepositories\eps-us\InputData\io-model\URPbIC\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF088B62-E7B5-40D0-8FD5-09D79EE24E3D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{111598D9-CA0B-488C-B665-0CB52396764C}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="2" r:id="rId1"/>
-    <sheet name="URPbIC" sheetId="3" r:id="rId2"/>
+    <sheet name="BLS Table 3" sheetId="1" r:id="rId2"/>
+    <sheet name="ISIC to BLS Map" sheetId="4" r:id="rId3"/>
+    <sheet name="URPbIC" sheetId="3" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -33,7 +36,238 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="171">
+  <si>
+    <t>Management, professional, and related occupations</t>
+  </si>
+  <si>
+    <t>Management, business, and financial operations occupations</t>
+  </si>
+  <si>
+    <t>Management occupations</t>
+  </si>
+  <si>
+    <t>Business and financial operations occupations</t>
+  </si>
+  <si>
+    <t>Professional and related occupations</t>
+  </si>
+  <si>
+    <t>Computer and mathematical occupations</t>
+  </si>
+  <si>
+    <t>Architecture and engineering occupations</t>
+  </si>
+  <si>
+    <t>Life, physical, and social science occupations</t>
+  </si>
+  <si>
+    <t>Community and social service occupations</t>
+  </si>
+  <si>
+    <t>Legal occupations</t>
+  </si>
+  <si>
+    <t>Education, training, and library occupations</t>
+  </si>
+  <si>
+    <t>Arts, design, entertainment, sports, and media occupations</t>
+  </si>
+  <si>
+    <t>Healthcare practitioners and technical occupations</t>
+  </si>
+  <si>
+    <t>Service occupations</t>
+  </si>
+  <si>
+    <t>Healthcare support occupations</t>
+  </si>
+  <si>
+    <t>Protective service occupations</t>
+  </si>
+  <si>
+    <t>Food preparation and serving related occupations</t>
+  </si>
+  <si>
+    <t>Building and grounds cleaning and maintenance occupations</t>
+  </si>
+  <si>
+    <t>Personal care and service occupations</t>
+  </si>
+  <si>
+    <t>Sales and office occupations</t>
+  </si>
+  <si>
+    <t>Sales and related occupations</t>
+  </si>
+  <si>
+    <t>Office and administrative support occupations</t>
+  </si>
+  <si>
+    <t>Natural resources, construction, and maintenance occupations</t>
+  </si>
+  <si>
+    <t>Farming, fishing, and forestry occupations</t>
+  </si>
+  <si>
+    <t>Construction and extraction occupations</t>
+  </si>
+  <si>
+    <t>Installation, maintenance, and repair occupations</t>
+  </si>
+  <si>
+    <t>Production, transportation, and material moving occupations</t>
+  </si>
+  <si>
+    <t>Production occupations</t>
+  </si>
+  <si>
+    <t>Transportation and material moving occupations</t>
+  </si>
+  <si>
+    <t>INDUSTRY</t>
+  </si>
+  <si>
+    <t>Private sector</t>
+  </si>
+  <si>
+    <t>Agriculture and related industries</t>
+  </si>
+  <si>
+    <t>Nonagricultural industries</t>
+  </si>
+  <si>
+    <t>Mining, quarrying, and oil and gas extraction</t>
+  </si>
+  <si>
+    <t>Construction</t>
+  </si>
+  <si>
+    <t>Manufacturing</t>
+  </si>
+  <si>
+    <t>Durable goods</t>
+  </si>
+  <si>
+    <t>Nondurable goods</t>
+  </si>
+  <si>
+    <t>Wholesale and retail trade</t>
+  </si>
+  <si>
+    <t>Wholesale trade</t>
+  </si>
+  <si>
+    <t>Retail trade</t>
+  </si>
+  <si>
+    <t>Transportation and utilities</t>
+  </si>
+  <si>
+    <t>Transportation and warehousing</t>
+  </si>
+  <si>
+    <t>Utilities</t>
+  </si>
+  <si>
+    <t>Information(3)</t>
+  </si>
+  <si>
+    <t>Publishing, except Internet</t>
+  </si>
+  <si>
+    <t>Motion pictures and sound recording industries</t>
+  </si>
+  <si>
+    <t>Radio and television broadcasting and cable subscription programming</t>
+  </si>
+  <si>
+    <t>Telecommunications</t>
+  </si>
+  <si>
+    <t>Financial activities</t>
+  </si>
+  <si>
+    <t>Finance and insurance</t>
+  </si>
+  <si>
+    <t>Finance</t>
+  </si>
+  <si>
+    <t>Insurance</t>
+  </si>
+  <si>
+    <t>Real estate and rental and leasing</t>
+  </si>
+  <si>
+    <t>Professional and business services</t>
+  </si>
+  <si>
+    <t>Professional and technical services</t>
+  </si>
+  <si>
+    <t>Management, administrative, and waste services</t>
+  </si>
+  <si>
+    <t>Education and health services</t>
+  </si>
+  <si>
+    <t>Educational services</t>
+  </si>
+  <si>
+    <t>Health care and social assistance</t>
+  </si>
+  <si>
+    <t>Leisure and hospitality</t>
+  </si>
+  <si>
+    <t>Arts, entertainment, and recreation</t>
+  </si>
+  <si>
+    <t>Accommodation and food services</t>
+  </si>
+  <si>
+    <t>Accommodation</t>
+  </si>
+  <si>
+    <t>Food services and drinking places</t>
+  </si>
+  <si>
+    <t>Other services(3)</t>
+  </si>
+  <si>
+    <t>Other services, except private households</t>
+  </si>
+  <si>
+    <t>Public sector</t>
+  </si>
+  <si>
+    <t>Federal government</t>
+  </si>
+  <si>
+    <t>State government</t>
+  </si>
+  <si>
+    <t>Local government</t>
+  </si>
+  <si>
+    <t>OCCUPATION</t>
+  </si>
+  <si>
+    <t>Total Employed</t>
+  </si>
+  <si>
+    <t>Total Union Members</t>
+  </si>
+  <si>
+    <t>Percent of Employed</t>
+  </si>
+  <si>
+    <t>Total Represented by Unions</t>
+  </si>
+  <si>
+    <t>Year 2019</t>
+  </si>
   <si>
     <t>URPbIC Union Representation Percentage by ISIC Code</t>
   </si>
@@ -41,6 +275,18 @@
     <t>Source:</t>
   </si>
   <si>
+    <t>U.S. Bureau of Labor Statistics</t>
+  </si>
+  <si>
+    <t>Economic News Release: Union Membership</t>
+  </si>
+  <si>
+    <t>https://www.bls.gov/news.release/union2.t03.htm</t>
+  </si>
+  <si>
+    <t>Table 3</t>
+  </si>
+  <si>
     <t>ISIC 01T03</t>
   </si>
   <si>
@@ -140,9 +386,114 @@
     <t>Percent Union Representation</t>
   </si>
   <si>
+    <t>ISIC Code</t>
+  </si>
+  <si>
+    <t>Agriculture, forestry and fishing</t>
+  </si>
+  <si>
+    <t>Mining and quarrying of non-energy producing products</t>
+  </si>
+  <si>
+    <t>Mining support service activities</t>
+  </si>
+  <si>
+    <t>Food products, beverages and tobacco</t>
+  </si>
+  <si>
+    <t>Textiles, wearing apparel, leather and related products</t>
+  </si>
+  <si>
+    <t>Wood and products of wood and cork</t>
+  </si>
+  <si>
+    <t>Paper products and printing</t>
+  </si>
+  <si>
+    <t>Coke and refined petroleum products</t>
+  </si>
+  <si>
+    <t>Rubber and plastic products</t>
+  </si>
+  <si>
+    <t>Fabricated metal products</t>
+  </si>
+  <si>
+    <t>Computer, electronic and optical products</t>
+  </si>
+  <si>
+    <t>Electrical equipment</t>
+  </si>
+  <si>
+    <t>Machinery and equipment, nec</t>
+  </si>
+  <si>
+    <t>Motor vehicles, trailers and semi-trailers</t>
+  </si>
+  <si>
+    <t>Other transport equipment</t>
+  </si>
+  <si>
+    <t>Other manufacturing; repair and installation of machinery and equipment</t>
+  </si>
+  <si>
+    <t>Wholesale and retail trade; repair of motor vehicles</t>
+  </si>
+  <si>
+    <t>Transportation and storage</t>
+  </si>
+  <si>
+    <t>Accomodation and food services</t>
+  </si>
+  <si>
+    <t>Publishing, audiovisual and broadcasting activities</t>
+  </si>
+  <si>
+    <t>IT and other information services</t>
+  </si>
+  <si>
+    <t>Financial and insurance activities</t>
+  </si>
+  <si>
+    <t>Real estate activities</t>
+  </si>
+  <si>
+    <t>Other business sector services</t>
+  </si>
+  <si>
+    <t>Public admin. and defence; compulsory social security</t>
+  </si>
+  <si>
+    <t>Education</t>
+  </si>
+  <si>
+    <t>Human health and social work</t>
+  </si>
+  <si>
+    <t>Arts, entertainment, recreation and other service activities</t>
+  </si>
+  <si>
+    <t>Private households with employed persons</t>
+  </si>
+  <si>
+    <t>ISIC Code Meaning</t>
+  </si>
+  <si>
+    <t>Mapped BLS Category</t>
+  </si>
+  <si>
+    <t>Share Represented by Unions</t>
+  </si>
+  <si>
     <t>ISIC 21</t>
   </si>
   <si>
+    <t>Chemicals</t>
+  </si>
+  <si>
+    <t>Pharmaceuticals</t>
+  </si>
+  <si>
     <t>ISIC 20</t>
   </si>
   <si>
@@ -152,15 +503,33 @@
     <t>ISIC 05</t>
   </si>
   <si>
+    <t>Coal mining</t>
+  </si>
+  <si>
+    <t>Oil and gas extraction</t>
+  </si>
+  <si>
     <t>ISIC 239</t>
   </si>
   <si>
     <t>ISIC 231</t>
   </si>
   <si>
+    <t>Glass</t>
+  </si>
+  <si>
+    <t>Cement and other nometallic minerals</t>
+  </si>
+  <si>
     <t>ISIC 241</t>
   </si>
   <si>
+    <t>Iron and steel</t>
+  </si>
+  <si>
+    <t>Other metals</t>
+  </si>
+  <si>
     <t>ISIC 242</t>
   </si>
   <si>
@@ -173,16 +542,19 @@
     <t>ISIC 36T39</t>
   </si>
   <si>
-    <t>None</t>
-  </si>
-  <si>
-    <t>The union representation feature is not used in the EU model.</t>
+    <t>Electricity generation and distribution</t>
+  </si>
+  <si>
+    <t>Energy pipelines and gas processing</t>
+  </si>
+  <si>
+    <t>Water and waste</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -221,7 +593,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -230,15 +602,64 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="10">
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
       <top/>
       <bottom/>
       <diagonal/>
@@ -266,6 +687,28 @@
       <diagonal/>
     </border>
     <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top style="medium">
@@ -274,39 +717,84 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" indent="3"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" indent="4"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="2"/>
+    <cellStyle name="Normal 2" xfId="2" xr:uid="{2F0C8A8E-D31E-4F34-A1FB-A6290494DAD1}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -617,321 +1105,2540 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B6"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C0A80408-5795-454F-9839-1063721C3DFB}">
+  <dimension ref="A1:B7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>78</v>
+      </c>
+      <c r="B3" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B4" s="5">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B6" s="2" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B7" t="s">
+        <v>82</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B6" r:id="rId1" xr:uid="{BC277AAD-E748-45CC-9376-55C6DF24D19D}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{036DD121-3755-4593-ADE2-1A9CE9A52017}">
+  <dimension ref="A1:F75"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="58.85546875" customWidth="1"/>
+    <col min="2" max="6" width="18.42578125" customWidth="1"/>
+    <col min="7" max="7" width="9.140625" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="B2" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="B3" s="6"/>
+      <c r="C3" s="6"/>
+      <c r="D3" s="6"/>
+      <c r="E3" s="6"/>
+      <c r="F3" s="6"/>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A3" t="s">
+      <c r="B4" s="1">
+        <v>56495</v>
+      </c>
+      <c r="C4" s="1">
+        <v>6277</v>
+      </c>
+      <c r="D4">
+        <v>11.1</v>
+      </c>
+      <c r="E4" s="1">
+        <v>7211</v>
+      </c>
+      <c r="F4">
+        <v>12.8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="10" t="s">
         <v>1</v>
       </c>
+      <c r="B5" s="1">
+        <v>21991</v>
+      </c>
+      <c r="C5">
+        <v>957</v>
+      </c>
+      <c r="D5">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="E5" s="1">
+        <v>1183</v>
+      </c>
+      <c r="F5">
+        <v>5.4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="B6" s="1">
+        <v>14753</v>
+      </c>
+      <c r="C6">
+        <v>614</v>
+      </c>
+      <c r="D6">
+        <v>4.2</v>
+      </c>
+      <c r="E6">
+        <v>748</v>
+      </c>
+      <c r="F6">
+        <v>5.0999999999999996</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="B7" s="1">
+        <v>7238</v>
+      </c>
+      <c r="C7">
+        <v>343</v>
+      </c>
+      <c r="D7">
+        <v>4.7</v>
+      </c>
+      <c r="E7">
+        <v>435</v>
+      </c>
+      <c r="F7">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="B8" s="1">
+        <v>34504</v>
+      </c>
+      <c r="C8" s="1">
+        <v>5319</v>
+      </c>
+      <c r="D8">
+        <v>15.4</v>
+      </c>
+      <c r="E8" s="1">
+        <v>6028</v>
+      </c>
+      <c r="F8">
+        <v>17.5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="B9" s="1">
+        <v>5145</v>
+      </c>
+      <c r="C9">
+        <v>196</v>
+      </c>
+      <c r="D9">
+        <v>3.8</v>
+      </c>
+      <c r="E9">
+        <v>254</v>
+      </c>
+      <c r="F9">
+        <v>4.9000000000000004</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="B10" s="1">
+        <v>3137</v>
+      </c>
+      <c r="C10">
+        <v>220</v>
+      </c>
+      <c r="D10">
+        <v>7</v>
+      </c>
+      <c r="E10">
+        <v>264</v>
+      </c>
+      <c r="F10">
+        <v>8.4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="B11" s="1">
+        <v>1392</v>
+      </c>
+      <c r="C11">
+        <v>120</v>
+      </c>
+      <c r="D11">
+        <v>8.6</v>
+      </c>
+      <c r="E11">
+        <v>138</v>
+      </c>
+      <c r="F11">
+        <v>9.9</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="B12" s="1">
+        <v>2617</v>
+      </c>
+      <c r="C12">
+        <v>408</v>
+      </c>
+      <c r="D12">
+        <v>15.6</v>
+      </c>
+      <c r="E12">
+        <v>454</v>
+      </c>
+      <c r="F12">
+        <v>17.399999999999999</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="B13" s="1">
+        <v>1598</v>
+      </c>
+      <c r="C13">
+        <v>78</v>
+      </c>
+      <c r="D13">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="E13">
+        <v>110</v>
+      </c>
+      <c r="F13">
+        <v>6.9</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="B14" s="1">
+        <v>9233</v>
+      </c>
+      <c r="C14" s="1">
+        <v>3057</v>
+      </c>
+      <c r="D14">
+        <v>33.1</v>
+      </c>
+      <c r="E14" s="1">
+        <v>3381</v>
+      </c>
+      <c r="F14">
+        <v>36.6</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="B15" s="1">
+        <v>2259</v>
+      </c>
+      <c r="C15">
+        <v>165</v>
+      </c>
+      <c r="D15">
+        <v>7.3</v>
+      </c>
+      <c r="E15">
+        <v>180</v>
+      </c>
+      <c r="F15">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="B16" s="1">
+        <v>9123</v>
+      </c>
+      <c r="C16" s="1">
+        <v>1076</v>
+      </c>
+      <c r="D16">
+        <v>11.8</v>
+      </c>
+      <c r="E16" s="1">
+        <v>1247</v>
+      </c>
+      <c r="F16">
+        <v>13.7</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>13</v>
+      </c>
+      <c r="B17" s="1">
+        <v>24547</v>
+      </c>
+      <c r="C17" s="1">
+        <v>2294</v>
+      </c>
+      <c r="D17">
+        <v>9.3000000000000007</v>
+      </c>
+      <c r="E17" s="1">
+        <v>2539</v>
+      </c>
+      <c r="F17">
+        <v>10.3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="B18" s="1">
+        <v>3605</v>
+      </c>
+      <c r="C18">
+        <v>265</v>
+      </c>
+      <c r="D18">
+        <v>7.4</v>
+      </c>
+      <c r="E18">
+        <v>298</v>
+      </c>
+      <c r="F18">
+        <v>8.3000000000000007</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="B19" s="1">
+        <v>3073</v>
+      </c>
+      <c r="C19" s="1">
+        <v>1038</v>
+      </c>
+      <c r="D19">
+        <v>33.799999999999997</v>
+      </c>
+      <c r="E19" s="1">
+        <v>1100</v>
+      </c>
+      <c r="F19">
+        <v>35.799999999999997</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="B20" s="1">
+        <v>8306</v>
+      </c>
+      <c r="C20">
+        <v>294</v>
+      </c>
+      <c r="D20">
+        <v>3.5</v>
+      </c>
+      <c r="E20">
+        <v>351</v>
+      </c>
+      <c r="F20">
+        <v>4.2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="B21" s="1">
+        <v>4962</v>
+      </c>
+      <c r="C21">
+        <v>433</v>
+      </c>
+      <c r="D21">
+        <v>8.6999999999999993</v>
+      </c>
+      <c r="E21">
+        <v>483</v>
+      </c>
+      <c r="F21">
+        <v>9.6999999999999993</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="B22" s="1">
+        <v>4600</v>
+      </c>
+      <c r="C22">
+        <v>264</v>
+      </c>
+      <c r="D22">
+        <v>5.7</v>
+      </c>
+      <c r="E22">
+        <v>307</v>
+      </c>
+      <c r="F22">
+        <v>6.7</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>19</v>
+      </c>
+      <c r="B23" s="1">
+        <v>30700</v>
+      </c>
+      <c r="C23" s="1">
+        <v>1879</v>
+      </c>
+      <c r="D23">
+        <v>6.1</v>
+      </c>
+      <c r="E23" s="1">
+        <v>2155</v>
+      </c>
+      <c r="F23">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="B24" s="1">
+        <v>13371</v>
+      </c>
+      <c r="C24">
+        <v>374</v>
+      </c>
+      <c r="D24">
+        <v>2.8</v>
+      </c>
+      <c r="E24">
+        <v>467</v>
+      </c>
+      <c r="F24">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A25" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="B25" s="1">
+        <v>17329</v>
+      </c>
+      <c r="C25" s="1">
+        <v>1505</v>
+      </c>
+      <c r="D25">
+        <v>8.6999999999999993</v>
+      </c>
+      <c r="E25" s="1">
+        <v>1688</v>
+      </c>
+      <c r="F25">
+        <v>9.6999999999999993</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>22</v>
+      </c>
+      <c r="B26" s="1">
+        <v>12427</v>
+      </c>
+      <c r="C26" s="1">
+        <v>1854</v>
+      </c>
+      <c r="D26">
+        <v>14.9</v>
+      </c>
+      <c r="E26" s="1">
+        <v>1991</v>
+      </c>
+      <c r="F26">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A27" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="B27" s="1">
+        <v>1060</v>
+      </c>
+      <c r="C27">
+        <v>22</v>
+      </c>
+      <c r="D27">
+        <v>2.1</v>
+      </c>
+      <c r="E27">
+        <v>36</v>
+      </c>
+      <c r="F27">
+        <v>3.4</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A28" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="B28" s="1">
+        <v>6859</v>
+      </c>
+      <c r="C28" s="1">
+        <v>1192</v>
+      </c>
+      <c r="D28">
+        <v>17.399999999999999</v>
+      </c>
+      <c r="E28" s="1">
+        <v>1269</v>
+      </c>
+      <c r="F28">
+        <v>18.5</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A29" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="B29" s="1">
+        <v>4508</v>
+      </c>
+      <c r="C29">
+        <v>640</v>
+      </c>
+      <c r="D29">
+        <v>14.2</v>
+      </c>
+      <c r="E29">
+        <v>686</v>
+      </c>
+      <c r="F29">
+        <v>15.2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>26</v>
+      </c>
+      <c r="B30" s="1">
+        <v>17567</v>
+      </c>
+      <c r="C30" s="1">
+        <v>2269</v>
+      </c>
+      <c r="D30">
+        <v>12.9</v>
+      </c>
+      <c r="E30" s="1">
+        <v>2487</v>
+      </c>
+      <c r="F30">
+        <v>14.2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A31" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="B31" s="1">
+        <v>8304</v>
+      </c>
+      <c r="C31">
+        <v>976</v>
+      </c>
+      <c r="D31">
+        <v>11.8</v>
+      </c>
+      <c r="E31" s="1">
+        <v>1067</v>
+      </c>
+      <c r="F31">
+        <v>12.8</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A32" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="B32" s="1">
+        <v>9263</v>
+      </c>
+      <c r="C32" s="1">
+        <v>1294</v>
+      </c>
+      <c r="D32">
+        <v>14</v>
+      </c>
+      <c r="E32" s="1">
+        <v>1420</v>
+      </c>
+      <c r="F32">
+        <v>15.3</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A34" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="B34" s="6"/>
+      <c r="C34" s="6"/>
+      <c r="D34" s="6"/>
+      <c r="E34" s="6"/>
+      <c r="F34" s="6"/>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>30</v>
+      </c>
+      <c r="B35" s="1">
+        <v>120714</v>
+      </c>
+      <c r="C35" s="1">
+        <v>7508</v>
+      </c>
+      <c r="D35">
+        <v>6.2</v>
+      </c>
+      <c r="E35" s="1">
+        <v>8562</v>
+      </c>
+      <c r="F35">
+        <v>7.1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A36" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="B36" s="1">
+        <v>1352</v>
+      </c>
+      <c r="C36">
+        <v>23</v>
+      </c>
+      <c r="D36">
+        <v>1.7</v>
+      </c>
+      <c r="E36">
+        <v>38</v>
+      </c>
+      <c r="F36">
+        <v>2.8</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A37" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="B37" s="1">
+        <v>119362</v>
+      </c>
+      <c r="C37" s="1">
+        <v>7485</v>
+      </c>
+      <c r="D37">
+        <v>6.3</v>
+      </c>
+      <c r="E37" s="1">
+        <v>8524</v>
+      </c>
+      <c r="F37">
+        <v>7.1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A38" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="B38">
+        <v>710</v>
+      </c>
+      <c r="C38">
+        <v>28</v>
+      </c>
+      <c r="D38">
+        <v>4</v>
+      </c>
+      <c r="E38">
+        <v>33</v>
+      </c>
+      <c r="F38">
+        <v>4.7</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A39" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="B39" s="1">
+        <v>8352</v>
+      </c>
+      <c r="C39" s="1">
+        <v>1055</v>
+      </c>
+      <c r="D39">
+        <v>12.6</v>
+      </c>
+      <c r="E39" s="1">
+        <v>1133</v>
+      </c>
+      <c r="F39">
+        <v>13.6</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A40" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="B40" s="1">
+        <v>15070</v>
+      </c>
+      <c r="C40" s="1">
+        <v>1291</v>
+      </c>
+      <c r="D40">
+        <v>8.6</v>
+      </c>
+      <c r="E40" s="1">
+        <v>1423</v>
+      </c>
+      <c r="F40">
+        <v>9.4</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A41" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="B41" s="1">
+        <v>9502</v>
+      </c>
+      <c r="C41">
+        <v>835</v>
+      </c>
+      <c r="D41">
+        <v>8.8000000000000007</v>
+      </c>
+      <c r="E41">
+        <v>912</v>
+      </c>
+      <c r="F41">
+        <v>9.6</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A42" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="B42" s="1">
+        <v>5568</v>
+      </c>
+      <c r="C42">
+        <v>455</v>
+      </c>
+      <c r="D42">
+        <v>8.1999999999999993</v>
+      </c>
+      <c r="E42">
+        <v>510</v>
+      </c>
+      <c r="F42">
+        <v>9.1999999999999993</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A43" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="B43" s="1">
+        <v>18113</v>
+      </c>
+      <c r="C43">
+        <v>741</v>
+      </c>
+      <c r="D43">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="E43">
+        <v>863</v>
+      </c>
+      <c r="F43">
+        <v>4.8</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A44" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="B44" s="1">
+        <v>3186</v>
+      </c>
+      <c r="C44">
+        <v>143</v>
+      </c>
+      <c r="D44">
+        <v>4.5</v>
+      </c>
+      <c r="E44">
+        <v>160</v>
+      </c>
+      <c r="F44">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A45" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="B45" s="1">
+        <v>14927</v>
+      </c>
+      <c r="C45">
+        <v>598</v>
+      </c>
+      <c r="D45">
+        <v>4</v>
+      </c>
+      <c r="E45">
+        <v>704</v>
+      </c>
+      <c r="F45">
+        <v>4.7</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A46" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="B46" s="1">
+        <v>6745</v>
+      </c>
+      <c r="C46" s="1">
+        <v>1166</v>
+      </c>
+      <c r="D46">
+        <v>17.3</v>
+      </c>
+      <c r="E46" s="1">
+        <v>1259</v>
+      </c>
+      <c r="F46">
+        <v>18.7</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A47" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="B47" s="1">
+        <v>5659</v>
+      </c>
+      <c r="C47">
+        <v>912</v>
+      </c>
+      <c r="D47">
+        <v>16.100000000000001</v>
+      </c>
+      <c r="E47">
+        <v>997</v>
+      </c>
+      <c r="F47">
+        <v>17.600000000000001</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A48" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="B48" s="1">
+        <v>1086</v>
+      </c>
+      <c r="C48">
+        <v>254</v>
+      </c>
+      <c r="D48">
+        <v>23.4</v>
+      </c>
+      <c r="E48">
+        <v>261</v>
+      </c>
+      <c r="F48">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A49" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="B49" s="1">
+        <v>2352</v>
+      </c>
+      <c r="C49">
+        <v>242</v>
+      </c>
+      <c r="D49">
+        <v>10.3</v>
+      </c>
+      <c r="E49">
+        <v>263</v>
+      </c>
+      <c r="F49">
+        <v>11.2</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A50" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="B50">
+        <v>355</v>
+      </c>
+      <c r="C50">
+        <v>12</v>
+      </c>
+      <c r="D50">
+        <v>3.3</v>
+      </c>
+      <c r="E50">
+        <v>13</v>
+      </c>
+      <c r="F50">
+        <v>3.8</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A51" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="B51">
+        <v>386</v>
+      </c>
+      <c r="C51">
+        <v>53</v>
+      </c>
+      <c r="D51">
+        <v>13.6</v>
+      </c>
+      <c r="E51">
+        <v>57</v>
+      </c>
+      <c r="F51">
+        <v>14.7</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A52" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="B52">
+        <v>482</v>
+      </c>
+      <c r="C52">
+        <v>53</v>
+      </c>
+      <c r="D52">
+        <v>11</v>
+      </c>
+      <c r="E52">
+        <v>57</v>
+      </c>
+      <c r="F52">
+        <v>11.9</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A53" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="B53">
+        <v>821</v>
+      </c>
+      <c r="C53">
+        <v>115</v>
+      </c>
+      <c r="D53">
+        <v>14.1</v>
+      </c>
+      <c r="E53">
+        <v>125</v>
+      </c>
+      <c r="F53">
+        <v>15.3</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A54" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="B54" s="1">
+        <v>9364</v>
+      </c>
+      <c r="C54">
+        <v>182</v>
+      </c>
+      <c r="D54">
+        <v>1.9</v>
+      </c>
+      <c r="E54">
+        <v>237</v>
+      </c>
+      <c r="F54">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A55" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="B55" s="1">
+        <v>6982</v>
+      </c>
+      <c r="C55">
+        <v>87</v>
+      </c>
+      <c r="D55">
+        <v>1.2</v>
+      </c>
+      <c r="E55">
+        <v>125</v>
+      </c>
+      <c r="F55">
+        <v>1.8</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A56" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="B56" s="1">
+        <v>4390</v>
+      </c>
+      <c r="C56">
+        <v>49</v>
+      </c>
+      <c r="D56">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="E56">
+        <v>74</v>
+      </c>
+      <c r="F56">
+        <v>1.7</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A57" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="B57" s="1">
+        <v>2592</v>
+      </c>
+      <c r="C57">
+        <v>37</v>
+      </c>
+      <c r="D57">
+        <v>1.4</v>
+      </c>
+      <c r="E57">
+        <v>51</v>
+      </c>
+      <c r="F57">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A58" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="B58" s="1">
+        <v>2382</v>
+      </c>
+      <c r="C58">
+        <v>95</v>
+      </c>
+      <c r="D58">
+        <v>4</v>
+      </c>
+      <c r="E58">
+        <v>112</v>
+      </c>
+      <c r="F58">
+        <v>4.7</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A59" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="B59" s="1">
+        <v>15720</v>
+      </c>
+      <c r="C59">
+        <v>339</v>
+      </c>
+      <c r="D59">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="E59">
+        <v>471</v>
+      </c>
+      <c r="F59">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A60" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="B60" s="1">
+        <v>10280</v>
+      </c>
+      <c r="C60">
+        <v>143</v>
+      </c>
+      <c r="D60">
+        <v>1.4</v>
+      </c>
+      <c r="E60">
+        <v>227</v>
+      </c>
+      <c r="F60">
+        <v>2.2000000000000002</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A61" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="B61" s="1">
+        <v>5440</v>
+      </c>
+      <c r="C61">
+        <v>197</v>
+      </c>
+      <c r="D61">
+        <v>3.6</v>
+      </c>
+      <c r="E61">
+        <v>244</v>
+      </c>
+      <c r="F61">
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A62" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="B62" s="1">
+        <v>23690</v>
+      </c>
+      <c r="C62" s="1">
+        <v>1885</v>
+      </c>
+      <c r="D62">
+        <v>8</v>
+      </c>
+      <c r="E62" s="1">
+        <v>2182</v>
+      </c>
+      <c r="F62">
+        <v>9.1999999999999993</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A63" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="B63" s="1">
+        <v>4922</v>
+      </c>
+      <c r="C63">
+        <v>608</v>
+      </c>
+      <c r="D63">
+        <v>12.3</v>
+      </c>
+      <c r="E63">
+        <v>693</v>
+      </c>
+      <c r="F63">
+        <v>14.1</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A64" s="12" t="s">
+        <v>59</v>
+      </c>
+      <c r="B64" s="1">
+        <v>18768</v>
+      </c>
+      <c r="C64" s="1">
+        <v>1278</v>
+      </c>
+      <c r="D64">
+        <v>6.8</v>
+      </c>
+      <c r="E64" s="1">
+        <v>1489</v>
+      </c>
+      <c r="F64">
+        <v>7.9</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A65" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="B65" s="1">
+        <v>13097</v>
+      </c>
+      <c r="C65">
+        <v>384</v>
+      </c>
+      <c r="D65">
+        <v>2.9</v>
+      </c>
+      <c r="E65">
+        <v>457</v>
+      </c>
+      <c r="F65">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A66" s="12" t="s">
+        <v>61</v>
+      </c>
+      <c r="B66" s="1">
+        <v>2498</v>
+      </c>
+      <c r="C66">
+        <v>164</v>
+      </c>
+      <c r="D66">
+        <v>6.6</v>
+      </c>
+      <c r="E66">
+        <v>184</v>
+      </c>
+      <c r="F66">
+        <v>7.4</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A67" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="B67" s="1">
+        <v>10599</v>
+      </c>
+      <c r="C67">
+        <v>220</v>
+      </c>
+      <c r="D67">
+        <v>2.1</v>
+      </c>
+      <c r="E67">
+        <v>274</v>
+      </c>
+      <c r="F67">
+        <v>2.6</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A68" s="13" t="s">
+        <v>63</v>
+      </c>
+      <c r="B68" s="1">
+        <v>1427</v>
+      </c>
+      <c r="C68">
+        <v>93</v>
+      </c>
+      <c r="D68">
+        <v>6.5</v>
+      </c>
+      <c r="E68">
+        <v>100</v>
+      </c>
+      <c r="F68">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A69" s="13" t="s">
+        <v>64</v>
+      </c>
+      <c r="B69" s="1">
+        <v>9172</v>
+      </c>
+      <c r="C69">
+        <v>128</v>
+      </c>
+      <c r="D69">
+        <v>1.4</v>
+      </c>
+      <c r="E69">
+        <v>173</v>
+      </c>
+      <c r="F69">
+        <v>1.9</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A70" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="B70" s="1">
+        <v>6150</v>
+      </c>
+      <c r="C70">
+        <v>172</v>
+      </c>
+      <c r="D70">
+        <v>2.8</v>
+      </c>
+      <c r="E70">
+        <v>202</v>
+      </c>
+      <c r="F70">
+        <v>3.3</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A71" s="12" t="s">
+        <v>66</v>
+      </c>
+      <c r="B71" s="1">
+        <v>5327</v>
+      </c>
+      <c r="C71">
+        <v>163</v>
+      </c>
+      <c r="D71">
+        <v>3.1</v>
+      </c>
+      <c r="E71">
+        <v>193</v>
+      </c>
+      <c r="F71">
+        <v>3.6</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>67</v>
+      </c>
+      <c r="B72" s="1">
+        <v>21023</v>
+      </c>
+      <c r="C72" s="1">
+        <v>7066</v>
+      </c>
+      <c r="D72">
+        <v>33.6</v>
+      </c>
+      <c r="E72" s="1">
+        <v>7821</v>
+      </c>
+      <c r="F72">
+        <v>37.200000000000003</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A73" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="B73" s="1">
+        <v>3798</v>
+      </c>
+      <c r="C73">
+        <v>974</v>
+      </c>
+      <c r="D73">
+        <v>25.6</v>
+      </c>
+      <c r="E73" s="1">
+        <v>1158</v>
+      </c>
+      <c r="F73">
+        <v>30.5</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A74" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="B74" s="1">
+        <v>6958</v>
+      </c>
+      <c r="C74" s="1">
+        <v>2043</v>
+      </c>
+      <c r="D74">
+        <v>29.4</v>
+      </c>
+      <c r="E74" s="1">
+        <v>2249</v>
+      </c>
+      <c r="F74">
+        <v>32.299999999999997</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A75" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="B75" s="1">
+        <v>10267</v>
+      </c>
+      <c r="C75" s="1">
+        <v>4050</v>
+      </c>
+      <c r="D75">
+        <v>39.4</v>
+      </c>
+      <c r="E75" s="1">
+        <v>4414</v>
+      </c>
+      <c r="F75">
+        <v>43</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BA20B78F-BFAE-4D2B-A715-7003FB965387}">
+  <dimension ref="A1:D43"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="13.28515625" style="5" customWidth="1"/>
+    <col min="2" max="2" width="68.42578125" customWidth="1"/>
+    <col min="3" max="3" width="44.85546875" customWidth="1"/>
+    <col min="4" max="4" width="19.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A1" s="9" t="s">
+        <v>116</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="D1" s="14" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="B2" t="s">
+        <v>117</v>
+      </c>
+      <c r="C2" s="15" t="str">
+        <f>'BLS Table 3'!A36</f>
+        <v>Agriculture and related industries</v>
+      </c>
+      <c r="D2">
+        <f>VLOOKUP($C2,'BLS Table 3'!$A$3:$F$75,COLUMN('BLS Table 3'!$F$2),FALSE)/100</f>
+        <v>2.7999999999999997E-2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="16" t="s">
+        <v>154</v>
+      </c>
       <c r="B3" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="B4" s="3"/>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A5" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="B6" s="1"/>
+        <v>155</v>
+      </c>
+      <c r="C3" s="15" t="str">
+        <f>'BLS Table 3'!A38</f>
+        <v>Mining, quarrying, and oil and gas extraction</v>
+      </c>
+      <c r="D3">
+        <f>VLOOKUP($C3,'BLS Table 3'!$A$3:$F$75,COLUMN('BLS Table 3'!$F$2),FALSE)/100</f>
+        <v>4.7E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="17" t="s">
+        <v>153</v>
+      </c>
+      <c r="B4" t="s">
+        <v>156</v>
+      </c>
+      <c r="C4" s="15" t="str">
+        <f>'BLS Table 3'!A38</f>
+        <v>Mining, quarrying, and oil and gas extraction</v>
+      </c>
+      <c r="D4">
+        <f>VLOOKUP($C4,'BLS Table 3'!$A$3:$F$75,COLUMN('BLS Table 3'!$F$2),FALSE)/100</f>
+        <v>4.7E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="B5" t="s">
+        <v>118</v>
+      </c>
+      <c r="C5" s="15" t="str">
+        <f>'BLS Table 3'!A38</f>
+        <v>Mining, quarrying, and oil and gas extraction</v>
+      </c>
+      <c r="D5">
+        <f>VLOOKUP($C5,'BLS Table 3'!$A$3:$F$75,COLUMN('BLS Table 3'!$F$2),FALSE)/100</f>
+        <v>4.7E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="B6" t="s">
+        <v>119</v>
+      </c>
+      <c r="C6" s="15" t="str">
+        <f>'BLS Table 3'!A38</f>
+        <v>Mining, quarrying, and oil and gas extraction</v>
+      </c>
+      <c r="D6">
+        <f>VLOOKUP($C6,'BLS Table 3'!$A$3:$F$75,COLUMN('BLS Table 3'!$F$2),FALSE)/100</f>
+        <v>4.7E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="B7" t="s">
+        <v>120</v>
+      </c>
+      <c r="C7" s="15" t="str">
+        <f>'BLS Table 3'!$A$42</f>
+        <v>Nondurable goods</v>
+      </c>
+      <c r="D7">
+        <f>VLOOKUP($C7,'BLS Table 3'!$A$3:$F$75,COLUMN('BLS Table 3'!$F$2),FALSE)/100</f>
+        <v>9.1999999999999998E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="B8" t="s">
+        <v>121</v>
+      </c>
+      <c r="C8" s="15" t="str">
+        <f>'BLS Table 3'!$A$42</f>
+        <v>Nondurable goods</v>
+      </c>
+      <c r="D8">
+        <f>VLOOKUP($C8,'BLS Table 3'!$A$3:$F$75,COLUMN('BLS Table 3'!$F$2),FALSE)/100</f>
+        <v>9.1999999999999998E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="B9" t="s">
+        <v>122</v>
+      </c>
+      <c r="C9" s="15" t="str">
+        <f>'BLS Table 3'!$A$42</f>
+        <v>Nondurable goods</v>
+      </c>
+      <c r="D9">
+        <f>VLOOKUP($C9,'BLS Table 3'!$A$3:$F$75,COLUMN('BLS Table 3'!$F$2),FALSE)/100</f>
+        <v>9.1999999999999998E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="B10" t="s">
+        <v>123</v>
+      </c>
+      <c r="C10" s="15" t="str">
+        <f>'BLS Table 3'!$A$42</f>
+        <v>Nondurable goods</v>
+      </c>
+      <c r="D10">
+        <f>VLOOKUP($C10,'BLS Table 3'!$A$3:$F$75,COLUMN('BLS Table 3'!$F$2),FALSE)/100</f>
+        <v>9.1999999999999998E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="B11" t="s">
+        <v>124</v>
+      </c>
+      <c r="C11" s="15" t="str">
+        <f>'BLS Table 3'!$A$42</f>
+        <v>Nondurable goods</v>
+      </c>
+      <c r="D11">
+        <f>VLOOKUP($C11,'BLS Table 3'!$A$3:$F$75,COLUMN('BLS Table 3'!$F$2),FALSE)/100</f>
+        <v>9.1999999999999998E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="16" t="s">
+        <v>152</v>
+      </c>
+      <c r="B12" t="s">
+        <v>150</v>
+      </c>
+      <c r="C12" s="15" t="str">
+        <f>'BLS Table 3'!$A$42</f>
+        <v>Nondurable goods</v>
+      </c>
+      <c r="D12">
+        <f>VLOOKUP($C12,'BLS Table 3'!$A$3:$F$75,COLUMN('BLS Table 3'!$F$2),FALSE)/100</f>
+        <v>9.1999999999999998E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="17" t="s">
+        <v>149</v>
+      </c>
+      <c r="B13" t="s">
+        <v>151</v>
+      </c>
+      <c r="C13" s="15" t="str">
+        <f>'BLS Table 3'!$A$42</f>
+        <v>Nondurable goods</v>
+      </c>
+      <c r="D13">
+        <f>VLOOKUP($C13,'BLS Table 3'!$A$3:$F$75,COLUMN('BLS Table 3'!$F$2),FALSE)/100</f>
+        <v>9.1999999999999998E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="B14" t="s">
+        <v>125</v>
+      </c>
+      <c r="C14" s="15" t="str">
+        <f>'BLS Table 3'!$A$42</f>
+        <v>Nondurable goods</v>
+      </c>
+      <c r="D14">
+        <f>VLOOKUP($C14,'BLS Table 3'!$A$3:$F$75,COLUMN('BLS Table 3'!$F$2),FALSE)/100</f>
+        <v>9.1999999999999998E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" s="16" t="s">
+        <v>158</v>
+      </c>
+      <c r="B15" t="s">
+        <v>159</v>
+      </c>
+      <c r="C15" s="15" t="str">
+        <f>'BLS Table 3'!$A$41</f>
+        <v>Durable goods</v>
+      </c>
+      <c r="D15">
+        <f>VLOOKUP($C15,'BLS Table 3'!$A$3:$F$75,COLUMN('BLS Table 3'!$F$2),FALSE)/100</f>
+        <v>9.6000000000000002E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="17" t="s">
+        <v>157</v>
+      </c>
+      <c r="B16" t="s">
+        <v>160</v>
+      </c>
+      <c r="C16" s="15" t="str">
+        <f>'BLS Table 3'!$A$41</f>
+        <v>Durable goods</v>
+      </c>
+      <c r="D16">
+        <f>VLOOKUP($C16,'BLS Table 3'!$A$3:$F$75,COLUMN('BLS Table 3'!$F$2),FALSE)/100</f>
+        <v>9.6000000000000002E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" s="16" t="s">
+        <v>161</v>
+      </c>
+      <c r="B17" t="s">
+        <v>162</v>
+      </c>
+      <c r="C17" s="15" t="str">
+        <f>'BLS Table 3'!$A$41</f>
+        <v>Durable goods</v>
+      </c>
+      <c r="D17">
+        <f>VLOOKUP($C17,'BLS Table 3'!$A$3:$F$75,COLUMN('BLS Table 3'!$F$2),FALSE)/100</f>
+        <v>9.6000000000000002E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="17" t="s">
+        <v>164</v>
+      </c>
+      <c r="B18" t="s">
+        <v>163</v>
+      </c>
+      <c r="C18" s="15" t="str">
+        <f>'BLS Table 3'!$A$41</f>
+        <v>Durable goods</v>
+      </c>
+      <c r="D18">
+        <f>VLOOKUP($C18,'BLS Table 3'!$A$3:$F$75,COLUMN('BLS Table 3'!$F$2),FALSE)/100</f>
+        <v>9.6000000000000002E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="B19" t="s">
+        <v>126</v>
+      </c>
+      <c r="C19" s="15" t="str">
+        <f>'BLS Table 3'!$A$41</f>
+        <v>Durable goods</v>
+      </c>
+      <c r="D19">
+        <f>VLOOKUP($C19,'BLS Table 3'!$A$3:$F$75,COLUMN('BLS Table 3'!$F$2),FALSE)/100</f>
+        <v>9.6000000000000002E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="B20" t="s">
+        <v>127</v>
+      </c>
+      <c r="C20" s="15" t="str">
+        <f>'BLS Table 3'!$A$41</f>
+        <v>Durable goods</v>
+      </c>
+      <c r="D20">
+        <f>VLOOKUP($C20,'BLS Table 3'!$A$3:$F$75,COLUMN('BLS Table 3'!$F$2),FALSE)/100</f>
+        <v>9.6000000000000002E-2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="B21" t="s">
+        <v>128</v>
+      </c>
+      <c r="C21" s="15" t="str">
+        <f>'BLS Table 3'!$A$41</f>
+        <v>Durable goods</v>
+      </c>
+      <c r="D21">
+        <f>VLOOKUP($C21,'BLS Table 3'!$A$3:$F$75,COLUMN('BLS Table 3'!$F$2),FALSE)/100</f>
+        <v>9.6000000000000002E-2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="B22" t="s">
+        <v>129</v>
+      </c>
+      <c r="C22" s="15" t="str">
+        <f>'BLS Table 3'!$A$41</f>
+        <v>Durable goods</v>
+      </c>
+      <c r="D22">
+        <f>VLOOKUP($C22,'BLS Table 3'!$A$3:$F$75,COLUMN('BLS Table 3'!$F$2),FALSE)/100</f>
+        <v>9.6000000000000002E-2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="B23" t="s">
+        <v>130</v>
+      </c>
+      <c r="C23" s="15" t="str">
+        <f>'BLS Table 3'!$A$41</f>
+        <v>Durable goods</v>
+      </c>
+      <c r="D23">
+        <f>VLOOKUP($C23,'BLS Table 3'!$A$3:$F$75,COLUMN('BLS Table 3'!$F$2),FALSE)/100</f>
+        <v>9.6000000000000002E-2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="B24" t="s">
+        <v>131</v>
+      </c>
+      <c r="C24" s="15" t="str">
+        <f>'BLS Table 3'!$A$41</f>
+        <v>Durable goods</v>
+      </c>
+      <c r="D24">
+        <f>VLOOKUP($C24,'BLS Table 3'!$A$3:$F$75,COLUMN('BLS Table 3'!$F$2),FALSE)/100</f>
+        <v>9.6000000000000002E-2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="B25" t="s">
+        <v>132</v>
+      </c>
+      <c r="C25" s="15" t="str">
+        <f>'BLS Table 3'!A40</f>
+        <v>Manufacturing</v>
+      </c>
+      <c r="D25">
+        <f>VLOOKUP($C25,'BLS Table 3'!$A$3:$F$75,COLUMN('BLS Table 3'!$F$2),FALSE)/100</f>
+        <v>9.4E-2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" s="16" t="s">
+        <v>165</v>
+      </c>
+      <c r="B26" t="s">
+        <v>168</v>
+      </c>
+      <c r="C26" s="15" t="str">
+        <f>'BLS Table 3'!$A$48</f>
+        <v>Utilities</v>
+      </c>
+      <c r="D26">
+        <f>VLOOKUP($C26,'BLS Table 3'!$A$3:$F$75,COLUMN('BLS Table 3'!$F$2),FALSE)/100</f>
+        <v>0.24</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27" s="18" t="s">
+        <v>166</v>
+      </c>
+      <c r="B27" t="s">
+        <v>169</v>
+      </c>
+      <c r="C27" s="15" t="str">
+        <f>'BLS Table 3'!$A$48</f>
+        <v>Utilities</v>
+      </c>
+      <c r="D27">
+        <f>VLOOKUP($C27,'BLS Table 3'!$A$3:$F$75,COLUMN('BLS Table 3'!$F$2),FALSE)/100</f>
+        <v>0.24</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="17" t="s">
+        <v>167</v>
+      </c>
+      <c r="B28" t="s">
+        <v>170</v>
+      </c>
+      <c r="C28" s="15" t="str">
+        <f>'BLS Table 3'!$A$48</f>
+        <v>Utilities</v>
+      </c>
+      <c r="D28">
+        <f>VLOOKUP($C28,'BLS Table 3'!$A$3:$F$75,COLUMN('BLS Table 3'!$F$2),FALSE)/100</f>
+        <v>0.24</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="B29" t="s">
+        <v>34</v>
+      </c>
+      <c r="C29" s="15" t="str">
+        <f>'BLS Table 3'!A39</f>
+        <v>Construction</v>
+      </c>
+      <c r="D29">
+        <f>VLOOKUP($C29,'BLS Table 3'!$A$3:$F$75,COLUMN('BLS Table 3'!$F$2),FALSE)/100</f>
+        <v>0.13600000000000001</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="B30" t="s">
+        <v>133</v>
+      </c>
+      <c r="C30" s="15" t="str">
+        <f>'BLS Table 3'!A43</f>
+        <v>Wholesale and retail trade</v>
+      </c>
+      <c r="D30">
+        <f>VLOOKUP($C30,'BLS Table 3'!$A$3:$F$75,COLUMN('BLS Table 3'!$F$2),FALSE)/100</f>
+        <v>4.8000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A31" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="B31" t="s">
+        <v>134</v>
+      </c>
+      <c r="C31" s="15" t="str">
+        <f>'BLS Table 3'!A47</f>
+        <v>Transportation and warehousing</v>
+      </c>
+      <c r="D31">
+        <f>VLOOKUP($C31,'BLS Table 3'!$A$3:$F$75,COLUMN('BLS Table 3'!$F$2),FALSE)/100</f>
+        <v>0.17600000000000002</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A32" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="B32" t="s">
+        <v>135</v>
+      </c>
+      <c r="C32" s="15" t="str">
+        <f>'BLS Table 3'!A67</f>
+        <v>Accommodation and food services</v>
+      </c>
+      <c r="D32">
+        <f>VLOOKUP($C32,'BLS Table 3'!$A$3:$F$75,COLUMN('BLS Table 3'!$F$2),FALSE)/100</f>
+        <v>2.6000000000000002E-2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A33" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="B33" t="s">
+        <v>136</v>
+      </c>
+      <c r="C33" s="15" t="str">
+        <f>'BLS Table 3'!A49</f>
+        <v>Information(3)</v>
+      </c>
+      <c r="D33">
+        <f>VLOOKUP($C33,'BLS Table 3'!$A$3:$F$75,COLUMN('BLS Table 3'!$F$2),FALSE)/100</f>
+        <v>0.11199999999999999</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A34" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="B34" t="s">
+        <v>48</v>
+      </c>
+      <c r="C34" s="15" t="str">
+        <f>'BLS Table 3'!A53</f>
+        <v>Telecommunications</v>
+      </c>
+      <c r="D34">
+        <f>VLOOKUP($C34,'BLS Table 3'!$A$3:$F$75,COLUMN('BLS Table 3'!$F$2),FALSE)/100</f>
+        <v>0.153</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A35" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="B35" t="s">
+        <v>137</v>
+      </c>
+      <c r="C35" s="15" t="str">
+        <f>'BLS Table 3'!A60</f>
+        <v>Professional and technical services</v>
+      </c>
+      <c r="D35">
+        <f>VLOOKUP($C35,'BLS Table 3'!$A$3:$F$75,COLUMN('BLS Table 3'!$F$2),FALSE)/100</f>
+        <v>2.2000000000000002E-2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A36" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="B36" t="s">
+        <v>138</v>
+      </c>
+      <c r="C36" s="15" t="str">
+        <f>'BLS Table 3'!A55</f>
+        <v>Finance and insurance</v>
+      </c>
+      <c r="D36">
+        <f>VLOOKUP($C36,'BLS Table 3'!$A$3:$F$75,COLUMN('BLS Table 3'!$F$2),FALSE)/100</f>
+        <v>1.8000000000000002E-2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A37" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="B37" t="s">
+        <v>139</v>
+      </c>
+      <c r="C37" s="15" t="str">
+        <f>'BLS Table 3'!A58</f>
+        <v>Real estate and rental and leasing</v>
+      </c>
+      <c r="D37">
+        <f>VLOOKUP($C37,'BLS Table 3'!$A$3:$F$75,COLUMN('BLS Table 3'!$F$2),FALSE)/100</f>
+        <v>4.7E-2</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A38" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="B38" t="s">
+        <v>140</v>
+      </c>
+      <c r="C38" s="15" t="str">
+        <f>'BLS Table 3'!A59</f>
+        <v>Professional and business services</v>
+      </c>
+      <c r="D38">
+        <f>VLOOKUP($C38,'BLS Table 3'!$A$3:$F$75,COLUMN('BLS Table 3'!$F$2),FALSE)/100</f>
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A39" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="B39" t="s">
+        <v>141</v>
+      </c>
+      <c r="C39" s="15" t="str">
+        <f>'BLS Table 3'!A73</f>
+        <v>Federal government</v>
+      </c>
+      <c r="D39">
+        <f>VLOOKUP($C39,'BLS Table 3'!$A$3:$F$75,COLUMN('BLS Table 3'!$F$2),FALSE)/100</f>
+        <v>0.30499999999999999</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A40" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="B40" t="s">
+        <v>142</v>
+      </c>
+      <c r="C40" s="15" t="str">
+        <f>'BLS Table 3'!A14</f>
+        <v>Education, training, and library occupations</v>
+      </c>
+      <c r="D40">
+        <f>VLOOKUP($C40,'BLS Table 3'!$A$3:$F$75,COLUMN('BLS Table 3'!$F$2),FALSE)/100</f>
+        <v>0.36599999999999999</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A41" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="B41" t="s">
+        <v>143</v>
+      </c>
+      <c r="C41" s="15" t="str">
+        <f>'BLS Table 3'!A64</f>
+        <v>Health care and social assistance</v>
+      </c>
+      <c r="D41">
+        <f>VLOOKUP($C41,'BLS Table 3'!$A$3:$F$75,COLUMN('BLS Table 3'!$F$2),FALSE)/100</f>
+        <v>7.9000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A42" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="B42" t="s">
+        <v>144</v>
+      </c>
+      <c r="C42" s="15" t="str">
+        <f>'BLS Table 3'!A66</f>
+        <v>Arts, entertainment, and recreation</v>
+      </c>
+      <c r="D42">
+        <f>VLOOKUP($C42,'BLS Table 3'!$A$3:$F$75,COLUMN('BLS Table 3'!$F$2),FALSE)/100</f>
+        <v>7.400000000000001E-2</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A43" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="B43" t="s">
+        <v>145</v>
+      </c>
+      <c r="C43" s="15" t="str">
+        <f>'BLS Table 3'!A70</f>
+        <v>Other services(3)</v>
+      </c>
+      <c r="D43">
+        <f>VLOOKUP($C43,'BLS Table 3'!$A$3:$F$75,COLUMN('BLS Table 3'!$F$2),FALSE)/100</f>
+        <v>3.3000000000000002E-2</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{967A55DF-A297-4213-AF7B-8CD84E93B1AA}">
   <sheetPr>
     <tabColor theme="4" tint="-0.249977111117893"/>
   </sheetPr>
   <dimension ref="A1:AQ2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="AN8" sqref="AN8"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="33.265625" customWidth="1"/>
-    <col min="2" max="43" width="11.59765625" customWidth="1"/>
+    <col min="1" max="1" width="33.28515625" customWidth="1"/>
+    <col min="2" max="43" width="11.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:43" s="5" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A1" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="B1" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="C1" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="D1" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="E1" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="I1" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="J1" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="K1" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="L1" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="M1" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="N1" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="O1" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="P1" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="Q1" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="R1" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="S1" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="T1" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="U1" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="V1" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="W1" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="X1" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="Y1" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="Z1" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="AA1" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="AB1" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="AC1" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="AD1" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="AE1" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="AF1" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="AG1" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="AH1" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="AI1" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="AJ1" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="AK1" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="AL1" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="AM1" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="AN1" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="AO1" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="AP1" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="AQ1" s="5" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="2" spans="1:43" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:43" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="C1" s="19" t="s">
+        <v>154</v>
+      </c>
+      <c r="D1" s="20" t="s">
+        <v>153</v>
+      </c>
+      <c r="E1" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="F1" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="G1" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="H1" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="I1" s="8" t="s">
+        <v>88</v>
+      </c>
+      <c r="J1" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="K1" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="L1" s="19" t="s">
+        <v>152</v>
+      </c>
+      <c r="M1" s="20" t="s">
+        <v>149</v>
+      </c>
+      <c r="N1" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="O1" s="19" t="s">
+        <v>158</v>
+      </c>
+      <c r="P1" s="20" t="s">
+        <v>157</v>
+      </c>
+      <c r="Q1" s="19" t="s">
+        <v>161</v>
+      </c>
+      <c r="R1" s="20" t="s">
+        <v>164</v>
+      </c>
+      <c r="S1" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="T1" s="8" t="s">
+        <v>93</v>
+      </c>
+      <c r="U1" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="V1" s="8" t="s">
+        <v>95</v>
+      </c>
+      <c r="W1" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="X1" s="8" t="s">
+        <v>97</v>
+      </c>
+      <c r="Y1" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="Z1" s="19" t="s">
+        <v>165</v>
+      </c>
+      <c r="AA1" s="23" t="s">
+        <v>166</v>
+      </c>
+      <c r="AB1" s="20" t="s">
+        <v>167</v>
+      </c>
+      <c r="AC1" s="8" t="s">
+        <v>99</v>
+      </c>
+      <c r="AD1" s="8" t="s">
+        <v>100</v>
+      </c>
+      <c r="AE1" s="8" t="s">
+        <v>101</v>
+      </c>
+      <c r="AF1" s="8" t="s">
+        <v>102</v>
+      </c>
+      <c r="AG1" s="8" t="s">
+        <v>103</v>
+      </c>
+      <c r="AH1" s="8" t="s">
+        <v>104</v>
+      </c>
+      <c r="AI1" s="8" t="s">
+        <v>105</v>
+      </c>
+      <c r="AJ1" s="8" t="s">
+        <v>106</v>
+      </c>
+      <c r="AK1" s="8" t="s">
+        <v>107</v>
+      </c>
+      <c r="AL1" s="8" t="s">
+        <v>108</v>
+      </c>
+      <c r="AM1" s="8" t="s">
+        <v>109</v>
+      </c>
+      <c r="AN1" s="8" t="s">
+        <v>110</v>
+      </c>
+      <c r="AO1" s="8" t="s">
+        <v>111</v>
+      </c>
+      <c r="AP1" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="AQ1" s="8" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="2" spans="1:43" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>34</v>
+        <v>115</v>
       </c>
       <c r="B2">
-        <v>0</v>
-      </c>
-      <c r="C2">
-        <v>0</v>
-      </c>
-      <c r="D2">
-        <v>0</v>
+        <f>VLOOKUP(B$1,'ISIC to BLS Map'!$A$1:$D$43,COLUMN('ISIC to BLS Map'!$D$1),FALSE)</f>
+        <v>2.7999999999999997E-2</v>
+      </c>
+      <c r="C2" s="21">
+        <f>VLOOKUP(C$1,'ISIC to BLS Map'!$A$1:$D$43,COLUMN('ISIC to BLS Map'!$D$1),FALSE)</f>
+        <v>4.7E-2</v>
+      </c>
+      <c r="D2" s="22">
+        <f>VLOOKUP(D$1,'ISIC to BLS Map'!$A$1:$D$43,COLUMN('ISIC to BLS Map'!$D$1),FALSE)</f>
+        <v>4.7E-2</v>
       </c>
       <c r="E2">
-        <v>0</v>
+        <f>VLOOKUP(E$1,'ISIC to BLS Map'!$A$1:$D$43,COLUMN('ISIC to BLS Map'!$D$1),FALSE)</f>
+        <v>4.7E-2</v>
       </c>
       <c r="F2">
-        <v>0</v>
+        <f>VLOOKUP(F$1,'ISIC to BLS Map'!$A$1:$D$43,COLUMN('ISIC to BLS Map'!$D$1),FALSE)</f>
+        <v>4.7E-2</v>
       </c>
       <c r="G2">
-        <v>0</v>
+        <f>VLOOKUP(G$1,'ISIC to BLS Map'!$A$1:$D$43,COLUMN('ISIC to BLS Map'!$D$1),FALSE)</f>
+        <v>9.1999999999999998E-2</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <f>VLOOKUP(H$1,'ISIC to BLS Map'!$A$1:$D$43,COLUMN('ISIC to BLS Map'!$D$1),FALSE)</f>
+        <v>9.1999999999999998E-2</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <f>VLOOKUP(I$1,'ISIC to BLS Map'!$A$1:$D$43,COLUMN('ISIC to BLS Map'!$D$1),FALSE)</f>
+        <v>9.1999999999999998E-2</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <f>VLOOKUP(J$1,'ISIC to BLS Map'!$A$1:$D$43,COLUMN('ISIC to BLS Map'!$D$1),FALSE)</f>
+        <v>9.1999999999999998E-2</v>
       </c>
       <c r="K2">
-        <v>0</v>
-      </c>
-      <c r="L2">
-        <v>0</v>
-      </c>
-      <c r="M2">
-        <v>0</v>
+        <f>VLOOKUP(K$1,'ISIC to BLS Map'!$A$1:$D$43,COLUMN('ISIC to BLS Map'!$D$1),FALSE)</f>
+        <v>9.1999999999999998E-2</v>
+      </c>
+      <c r="L2" s="21">
+        <f>VLOOKUP(L$1,'ISIC to BLS Map'!$A$1:$D$43,COLUMN('ISIC to BLS Map'!$D$1),FALSE)</f>
+        <v>9.1999999999999998E-2</v>
+      </c>
+      <c r="M2" s="22">
+        <f>VLOOKUP(M$1,'ISIC to BLS Map'!$A$1:$D$43,COLUMN('ISIC to BLS Map'!$D$1),FALSE)</f>
+        <v>9.1999999999999998E-2</v>
       </c>
       <c r="N2">
-        <v>0</v>
-      </c>
-      <c r="O2">
-        <v>0</v>
-      </c>
-      <c r="P2">
-        <v>0</v>
-      </c>
-      <c r="Q2">
-        <v>0</v>
-      </c>
-      <c r="R2">
-        <v>0</v>
+        <f>VLOOKUP(N$1,'ISIC to BLS Map'!$A$1:$D$43,COLUMN('ISIC to BLS Map'!$D$1),FALSE)</f>
+        <v>9.1999999999999998E-2</v>
+      </c>
+      <c r="O2" s="21">
+        <f>VLOOKUP(O$1,'ISIC to BLS Map'!$A$1:$D$43,COLUMN('ISIC to BLS Map'!$D$1),FALSE)</f>
+        <v>9.6000000000000002E-2</v>
+      </c>
+      <c r="P2" s="22">
+        <f>VLOOKUP(P$1,'ISIC to BLS Map'!$A$1:$D$43,COLUMN('ISIC to BLS Map'!$D$1),FALSE)</f>
+        <v>9.6000000000000002E-2</v>
+      </c>
+      <c r="Q2" s="21">
+        <f>VLOOKUP(Q$1,'ISIC to BLS Map'!$A$1:$D$43,COLUMN('ISIC to BLS Map'!$D$1),FALSE)</f>
+        <v>9.6000000000000002E-2</v>
+      </c>
+      <c r="R2" s="22">
+        <f>VLOOKUP(R$1,'ISIC to BLS Map'!$A$1:$D$43,COLUMN('ISIC to BLS Map'!$D$1),FALSE)</f>
+        <v>9.6000000000000002E-2</v>
       </c>
       <c r="S2">
-        <v>0</v>
+        <f>VLOOKUP(S$1,'ISIC to BLS Map'!$A$1:$D$43,COLUMN('ISIC to BLS Map'!$D$1),FALSE)</f>
+        <v>9.6000000000000002E-2</v>
       </c>
       <c r="T2">
-        <v>0</v>
+        <f>VLOOKUP(T$1,'ISIC to BLS Map'!$A$1:$D$43,COLUMN('ISIC to BLS Map'!$D$1),FALSE)</f>
+        <v>9.6000000000000002E-2</v>
       </c>
       <c r="U2">
-        <v>0</v>
+        <f>VLOOKUP(U$1,'ISIC to BLS Map'!$A$1:$D$43,COLUMN('ISIC to BLS Map'!$D$1),FALSE)</f>
+        <v>9.6000000000000002E-2</v>
       </c>
       <c r="V2">
-        <v>0</v>
+        <f>VLOOKUP(V$1,'ISIC to BLS Map'!$A$1:$D$43,COLUMN('ISIC to BLS Map'!$D$1),FALSE)</f>
+        <v>9.6000000000000002E-2</v>
       </c>
       <c r="W2">
-        <v>0</v>
+        <f>VLOOKUP(W$1,'ISIC to BLS Map'!$A$1:$D$43,COLUMN('ISIC to BLS Map'!$D$1),FALSE)</f>
+        <v>9.6000000000000002E-2</v>
       </c>
       <c r="X2">
-        <v>0</v>
+        <f>VLOOKUP(X$1,'ISIC to BLS Map'!$A$1:$D$43,COLUMN('ISIC to BLS Map'!$D$1),FALSE)</f>
+        <v>9.6000000000000002E-2</v>
       </c>
       <c r="Y2">
-        <v>0</v>
-      </c>
-      <c r="Z2">
-        <v>0</v>
-      </c>
-      <c r="AA2">
-        <v>0</v>
-      </c>
-      <c r="AB2">
-        <v>0</v>
+        <f>VLOOKUP(Y$1,'ISIC to BLS Map'!$A$1:$D$43,COLUMN('ISIC to BLS Map'!$D$1),FALSE)</f>
+        <v>9.4E-2</v>
+      </c>
+      <c r="Z2" s="21">
+        <f>VLOOKUP(Z$1,'ISIC to BLS Map'!$A$1:$D$43,COLUMN('ISIC to BLS Map'!$D$1),FALSE)</f>
+        <v>0.24</v>
+      </c>
+      <c r="AA2" s="24">
+        <f>VLOOKUP(AA$1,'ISIC to BLS Map'!$A$1:$D$43,COLUMN('ISIC to BLS Map'!$D$1),FALSE)</f>
+        <v>0.24</v>
+      </c>
+      <c r="AB2" s="22">
+        <f>VLOOKUP(AB$1,'ISIC to BLS Map'!$A$1:$D$43,COLUMN('ISIC to BLS Map'!$D$1),FALSE)</f>
+        <v>0.24</v>
       </c>
       <c r="AC2">
-        <v>0</v>
+        <f>VLOOKUP(AC$1,'ISIC to BLS Map'!$A$1:$D$43,COLUMN('ISIC to BLS Map'!$D$1),FALSE)</f>
+        <v>0.13600000000000001</v>
       </c>
       <c r="AD2">
-        <v>0</v>
+        <f>VLOOKUP(AD$1,'ISIC to BLS Map'!$A$1:$D$43,COLUMN('ISIC to BLS Map'!$D$1),FALSE)</f>
+        <v>4.8000000000000001E-2</v>
       </c>
       <c r="AE2">
-        <v>0</v>
+        <f>VLOOKUP(AE$1,'ISIC to BLS Map'!$A$1:$D$43,COLUMN('ISIC to BLS Map'!$D$1),FALSE)</f>
+        <v>0.17600000000000002</v>
       </c>
       <c r="AF2">
-        <v>0</v>
+        <f>VLOOKUP(AF$1,'ISIC to BLS Map'!$A$1:$D$43,COLUMN('ISIC to BLS Map'!$D$1),FALSE)</f>
+        <v>2.6000000000000002E-2</v>
       </c>
       <c r="AG2">
-        <v>0</v>
+        <f>VLOOKUP(AG$1,'ISIC to BLS Map'!$A$1:$D$43,COLUMN('ISIC to BLS Map'!$D$1),FALSE)</f>
+        <v>0.11199999999999999</v>
       </c>
       <c r="AH2">
-        <v>0</v>
+        <f>VLOOKUP(AH$1,'ISIC to BLS Map'!$A$1:$D$43,COLUMN('ISIC to BLS Map'!$D$1),FALSE)</f>
+        <v>0.153</v>
       </c>
       <c r="AI2">
-        <v>0</v>
+        <f>VLOOKUP(AI$1,'ISIC to BLS Map'!$A$1:$D$43,COLUMN('ISIC to BLS Map'!$D$1),FALSE)</f>
+        <v>2.2000000000000002E-2</v>
       </c>
       <c r="AJ2">
-        <v>0</v>
+        <f>VLOOKUP(AJ$1,'ISIC to BLS Map'!$A$1:$D$43,COLUMN('ISIC to BLS Map'!$D$1),FALSE)</f>
+        <v>1.8000000000000002E-2</v>
       </c>
       <c r="AK2">
-        <v>0</v>
+        <f>VLOOKUP(AK$1,'ISIC to BLS Map'!$A$1:$D$43,COLUMN('ISIC to BLS Map'!$D$1),FALSE)</f>
+        <v>4.7E-2</v>
       </c>
       <c r="AL2">
-        <v>0</v>
+        <f>VLOOKUP(AL$1,'ISIC to BLS Map'!$A$1:$D$43,COLUMN('ISIC to BLS Map'!$D$1),FALSE)</f>
+        <v>0.03</v>
       </c>
       <c r="AM2">
-        <v>0</v>
+        <f>VLOOKUP(AM$1,'ISIC to BLS Map'!$A$1:$D$43,COLUMN('ISIC to BLS Map'!$D$1),FALSE)</f>
+        <v>0.30499999999999999</v>
       </c>
       <c r="AN2">
-        <v>0</v>
+        <f>VLOOKUP(AN$1,'ISIC to BLS Map'!$A$1:$D$43,COLUMN('ISIC to BLS Map'!$D$1),FALSE)</f>
+        <v>0.36599999999999999</v>
       </c>
       <c r="AO2">
-        <v>0</v>
+        <f>VLOOKUP(AO$1,'ISIC to BLS Map'!$A$1:$D$43,COLUMN('ISIC to BLS Map'!$D$1),FALSE)</f>
+        <v>7.9000000000000001E-2</v>
       </c>
       <c r="AP2">
-        <v>0</v>
+        <f>VLOOKUP(AP$1,'ISIC to BLS Map'!$A$1:$D$43,COLUMN('ISIC to BLS Map'!$D$1),FALSE)</f>
+        <v>7.400000000000001E-2</v>
       </c>
       <c r="AQ2">
-        <v>0</v>
+        <f>VLOOKUP(AQ$1,'ISIC to BLS Map'!$A$1:$D$43,COLUMN('ISIC to BLS Map'!$D$1),FALSE)</f>
+        <v>3.3000000000000002E-2</v>
       </c>
     </row>
   </sheetData>

--- a/InputData/io-model/URPbIC/Union Representation Perc by ISIC Code.xlsx
+++ b/InputData/io-model/URPbIC/Union Representation Perc by ISIC Code.xlsx
@@ -3644,4 +3644,259 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100A08BDF573E2FFD46A5F05DED9AF68025" ma:contentTypeVersion="13" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="f85c0eb68479ad8b8987805fd5b8836b">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="00484652-42e1-479e-92f4-fb0efddcdf60" xmlns:ns3="41b1c9bf-5b6b-463b-ba12-a3b9bfbff0d3" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="f7dbc72841229da9eaa30ebb1456cd70" ns2:_="" ns3:_="">
+    <xsd:import namespace="00484652-42e1-479e-92f4-fb0efddcdf60"/>
+    <xsd:import namespace="41b1c9bf-5b6b-463b-ba12-a3b9bfbff0d3"/>
+    <xsd:element name="properties">
+      <xsd:complexType>
+        <xsd:sequence>
+          <xsd:element name="documentManagement">
+            <xsd:complexType>
+              <xsd:all>
+                <xsd:element ref="ns2:MediaServiceMetadata" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceFastMetadata" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceObjectDetectorVersions" minOccurs="0"/>
+                <xsd:element ref="ns2:lcf76f155ced4ddcb4097134ff3c332f" minOccurs="0"/>
+                <xsd:element ref="ns3:TaxCatchAll" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceGenerationTime" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceEventHashCode" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceDateTaken" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceLocation" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceOCR" minOccurs="0"/>
+                <xsd:element ref="ns3:SharedWithUsers" minOccurs="0"/>
+                <xsd:element ref="ns3:SharedWithDetails" minOccurs="0"/>
+              </xsd:all>
+            </xsd:complexType>
+          </xsd:element>
+        </xsd:sequence>
+      </xsd:complexType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="00484652-42e1-479e-92f4-fb0efddcdf60" elementFormDefault="qualified">
+    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <xsd:element name="MediaServiceMetadata" ma:index="8" nillable="true" ma:displayName="MediaServiceMetadata" ma:hidden="true" ma:internalName="MediaServiceMetadata" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceFastMetadata" ma:index="9" nillable="true" ma:displayName="MediaServiceFastMetadata" ma:hidden="true" ma:internalName="MediaServiceFastMetadata" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceObjectDetectorVersions" ma:index="10" nillable="true" ma:displayName="MediaServiceObjectDetectorVersions" ma:hidden="true" ma:indexed="true" ma:internalName="MediaServiceObjectDetectorVersions" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="lcf76f155ced4ddcb4097134ff3c332f" ma:index="12" nillable="true" ma:taxonomy="true" ma:internalName="lcf76f155ced4ddcb4097134ff3c332f" ma:taxonomyFieldName="MediaServiceImageTags" ma:displayName="Image Tags" ma:readOnly="false" ma:fieldId="{5cf76f15-5ced-4ddc-b409-7134ff3c332f}" ma:taxonomyMulti="true" ma:sspId="eca5b831-c3dc-41cf-bd85-218b82cecb21" ma:termSetId="09814cd3-568e-fe90-9814-8d621ff8fb84" ma:anchorId="fba54fb3-c3e1-fe81-a776-ca4b69148c4d" ma:open="true" ma:isKeyword="false">
+      <xsd:complexType>
+        <xsd:sequence>
+          <xsd:element ref="pc:Terms" minOccurs="0" maxOccurs="1"/>
+        </xsd:sequence>
+      </xsd:complexType>
+    </xsd:element>
+    <xsd:element name="MediaServiceGenerationTime" ma:index="14" nillable="true" ma:displayName="MediaServiceGenerationTime" ma:hidden="true" ma:internalName="MediaServiceGenerationTime" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceEventHashCode" ma:index="15" nillable="true" ma:displayName="MediaServiceEventHashCode" ma:hidden="true" ma:internalName="MediaServiceEventHashCode" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceDateTaken" ma:index="16" nillable="true" ma:displayName="MediaServiceDateTaken" ma:hidden="true" ma:indexed="true" ma:internalName="MediaServiceDateTaken" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceLocation" ma:index="17" nillable="true" ma:displayName="Location" ma:indexed="true" ma:internalName="MediaServiceLocation" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceOCR" ma:index="18" nillable="true" ma:displayName="Extracted Text" ma:internalName="MediaServiceOCR" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note">
+          <xsd:maxLength value="255"/>
+        </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="41b1c9bf-5b6b-463b-ba12-a3b9bfbff0d3" elementFormDefault="qualified">
+    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <xsd:element name="TaxCatchAll" ma:index="13" nillable="true" ma:displayName="Taxonomy Catch All Column" ma:hidden="true" ma:list="{c5b79d03-3bfd-4c46-9947-056a2403f6c9}" ma:internalName="TaxCatchAll" ma:showField="CatchAllData" ma:web="41b1c9bf-5b6b-463b-ba12-a3b9bfbff0d3">
+      <xsd:complexType>
+        <xsd:complexContent>
+          <xsd:extension base="dms:MultiChoiceLookup">
+            <xsd:sequence>
+              <xsd:element name="Value" type="dms:Lookup" maxOccurs="unbounded" minOccurs="0" nillable="true"/>
+            </xsd:sequence>
+          </xsd:extension>
+        </xsd:complexContent>
+      </xsd:complexType>
+    </xsd:element>
+    <xsd:element name="SharedWithUsers" ma:index="19" nillable="true" ma:displayName="Shared With" ma:internalName="SharedWithUsers" ma:readOnly="true">
+      <xsd:complexType>
+        <xsd:complexContent>
+          <xsd:extension base="dms:UserMulti">
+            <xsd:sequence>
+              <xsd:element name="UserInfo" minOccurs="0" maxOccurs="unbounded">
+                <xsd:complexType>
+                  <xsd:sequence>
+                    <xsd:element name="DisplayName" type="xsd:string" minOccurs="0"/>
+                    <xsd:element name="AccountId" type="dms:UserId" minOccurs="0" nillable="true"/>
+                    <xsd:element name="AccountType" type="xsd:string" minOccurs="0"/>
+                  </xsd:sequence>
+                </xsd:complexType>
+              </xsd:element>
+            </xsd:sequence>
+          </xsd:extension>
+        </xsd:complexContent>
+      </xsd:complexType>
+    </xsd:element>
+    <xsd:element name="SharedWithDetails" ma:index="20" nillable="true" ma:displayName="Shared With Details" ma:internalName="SharedWithDetails" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note">
+          <xsd:maxLength value="255"/>
+        </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:dc="http://purl.org/dc/elements/1.1/" xmlns:dcterms="http://purl.org/dc/terms/" xmlns:odoc="http://schemas.microsoft.com/internal/obd" targetNamespace="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" elementFormDefault="qualified" attributeFormDefault="unqualified" blockDefault="#all">
+    <xsd:import namespace="http://purl.org/dc/elements/1.1/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dc.xsd"/>
+    <xsd:import namespace="http://purl.org/dc/terms/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dcterms.xsd"/>
+    <xsd:element name="coreProperties" type="CT_coreProperties"/>
+    <xsd:complexType name="CT_coreProperties">
+      <xsd:all>
+        <xsd:element ref="dc:creator" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dcterms:created" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dc:identifier" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="contentType" minOccurs="0" maxOccurs="1" type="xsd:string" ma:index="0" ma:displayName="Content Type"/>
+        <xsd:element ref="dc:title" minOccurs="0" maxOccurs="1" ma:index="4" ma:displayName="Title"/>
+        <xsd:element ref="dc:subject" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dc:description" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="keywords" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element ref="dc:language" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="category" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element name="version" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element name="revision" minOccurs="0" maxOccurs="1" type="xsd:string">
+          <xsd:annotation>
+            <xsd:documentation>
+                        This value indicates the number of saves or revisions. The application is responsible for updating this value after each revision.
+                    </xsd:documentation>
+          </xsd:annotation>
+        </xsd:element>
+        <xsd:element name="lastModifiedBy" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element ref="dcterms:modified" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="contentStatus" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+      </xsd:all>
+    </xsd:complexType>
+  </xsd:schema>
+  <xs:schema xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" xmlns:xs="http://www.w3.org/2001/XMLSchema" targetNamespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" elementFormDefault="qualified" attributeFormDefault="unqualified">
+    <xs:element name="Person">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:DisplayName" minOccurs="0"/>
+          <xs:element ref="pc:AccountId" minOccurs="0"/>
+          <xs:element ref="pc:AccountType" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="DisplayName" type="xs:string"/>
+    <xs:element name="AccountId" type="xs:string"/>
+    <xs:element name="AccountType" type="xs:string"/>
+    <xs:element name="BDCAssociatedEntity">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:BDCEntity" minOccurs="0" maxOccurs="unbounded"/>
+        </xs:sequence>
+        <xs:attribute ref="pc:EntityNamespace"/>
+        <xs:attribute ref="pc:EntityName"/>
+        <xs:attribute ref="pc:SystemInstanceName"/>
+        <xs:attribute ref="pc:AssociationName"/>
+      </xs:complexType>
+    </xs:element>
+    <xs:attribute name="EntityNamespace" type="xs:string"/>
+    <xs:attribute name="EntityName" type="xs:string"/>
+    <xs:attribute name="SystemInstanceName" type="xs:string"/>
+    <xs:attribute name="AssociationName" type="xs:string"/>
+    <xs:element name="BDCEntity">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:EntityDisplayName" minOccurs="0"/>
+          <xs:element ref="pc:EntityInstanceReference" minOccurs="0"/>
+          <xs:element ref="pc:EntityId1" minOccurs="0"/>
+          <xs:element ref="pc:EntityId2" minOccurs="0"/>
+          <xs:element ref="pc:EntityId3" minOccurs="0"/>
+          <xs:element ref="pc:EntityId4" minOccurs="0"/>
+          <xs:element ref="pc:EntityId5" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="EntityDisplayName" type="xs:string"/>
+    <xs:element name="EntityInstanceReference" type="xs:string"/>
+    <xs:element name="EntityId1" type="xs:string"/>
+    <xs:element name="EntityId2" type="xs:string"/>
+    <xs:element name="EntityId3" type="xs:string"/>
+    <xs:element name="EntityId4" type="xs:string"/>
+    <xs:element name="EntityId5" type="xs:string"/>
+    <xs:element name="Terms">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:TermInfo" minOccurs="0" maxOccurs="unbounded"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="TermInfo">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:TermName" minOccurs="0"/>
+          <xs:element ref="pc:TermId" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="TermName" type="xs:string"/>
+    <xs:element name="TermId" type="xs:string"/>
+  </xs:schema>
+</ct:contentTypeSchema>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="00484652-42e1-479e-92f4-fb0efddcdf60">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="41b1c9bf-5b6b-463b-ba12-a3b9bfbff0d3" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7D8D9F35-FE5D-4D45-9137-32B08855B412}"/>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{78E51232-7557-40CB-B6D5-D5E28639D510}"/>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{95C41F9B-623D-4A3F-9AA8-8A4FBFF38AB7}"/>
 </file>
--- a/InputData/io-model/URPbIC/Union Representation Perc by ISIC Code.xlsx
+++ b/InputData/io-model/URPbIC/Union Representation Perc by ISIC Code.xlsx
@@ -3644,259 +3644,4 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100A08BDF573E2FFD46A5F05DED9AF68025" ma:contentTypeVersion="13" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="f85c0eb68479ad8b8987805fd5b8836b">
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="00484652-42e1-479e-92f4-fb0efddcdf60" xmlns:ns3="41b1c9bf-5b6b-463b-ba12-a3b9bfbff0d3" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="f7dbc72841229da9eaa30ebb1456cd70" ns2:_="" ns3:_="">
-    <xsd:import namespace="00484652-42e1-479e-92f4-fb0efddcdf60"/>
-    <xsd:import namespace="41b1c9bf-5b6b-463b-ba12-a3b9bfbff0d3"/>
-    <xsd:element name="properties">
-      <xsd:complexType>
-        <xsd:sequence>
-          <xsd:element name="documentManagement">
-            <xsd:complexType>
-              <xsd:all>
-                <xsd:element ref="ns2:MediaServiceMetadata" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceFastMetadata" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceObjectDetectorVersions" minOccurs="0"/>
-                <xsd:element ref="ns2:lcf76f155ced4ddcb4097134ff3c332f" minOccurs="0"/>
-                <xsd:element ref="ns3:TaxCatchAll" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceGenerationTime" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceEventHashCode" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceDateTaken" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceLocation" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceOCR" minOccurs="0"/>
-                <xsd:element ref="ns3:SharedWithUsers" minOccurs="0"/>
-                <xsd:element ref="ns3:SharedWithDetails" minOccurs="0"/>
-              </xsd:all>
-            </xsd:complexType>
-          </xsd:element>
-        </xsd:sequence>
-      </xsd:complexType>
-    </xsd:element>
-  </xsd:schema>
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="00484652-42e1-479e-92f4-fb0efddcdf60" elementFormDefault="qualified">
-    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <xsd:element name="MediaServiceMetadata" ma:index="8" nillable="true" ma:displayName="MediaServiceMetadata" ma:hidden="true" ma:internalName="MediaServiceMetadata" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceFastMetadata" ma:index="9" nillable="true" ma:displayName="MediaServiceFastMetadata" ma:hidden="true" ma:internalName="MediaServiceFastMetadata" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceObjectDetectorVersions" ma:index="10" nillable="true" ma:displayName="MediaServiceObjectDetectorVersions" ma:hidden="true" ma:indexed="true" ma:internalName="MediaServiceObjectDetectorVersions" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="lcf76f155ced4ddcb4097134ff3c332f" ma:index="12" nillable="true" ma:taxonomy="true" ma:internalName="lcf76f155ced4ddcb4097134ff3c332f" ma:taxonomyFieldName="MediaServiceImageTags" ma:displayName="Image Tags" ma:readOnly="false" ma:fieldId="{5cf76f15-5ced-4ddc-b409-7134ff3c332f}" ma:taxonomyMulti="true" ma:sspId="eca5b831-c3dc-41cf-bd85-218b82cecb21" ma:termSetId="09814cd3-568e-fe90-9814-8d621ff8fb84" ma:anchorId="fba54fb3-c3e1-fe81-a776-ca4b69148c4d" ma:open="true" ma:isKeyword="false">
-      <xsd:complexType>
-        <xsd:sequence>
-          <xsd:element ref="pc:Terms" minOccurs="0" maxOccurs="1"/>
-        </xsd:sequence>
-      </xsd:complexType>
-    </xsd:element>
-    <xsd:element name="MediaServiceGenerationTime" ma:index="14" nillable="true" ma:displayName="MediaServiceGenerationTime" ma:hidden="true" ma:internalName="MediaServiceGenerationTime" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceEventHashCode" ma:index="15" nillable="true" ma:displayName="MediaServiceEventHashCode" ma:hidden="true" ma:internalName="MediaServiceEventHashCode" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceDateTaken" ma:index="16" nillable="true" ma:displayName="MediaServiceDateTaken" ma:hidden="true" ma:indexed="true" ma:internalName="MediaServiceDateTaken" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceLocation" ma:index="17" nillable="true" ma:displayName="Location" ma:indexed="true" ma:internalName="MediaServiceLocation" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceOCR" ma:index="18" nillable="true" ma:displayName="Extracted Text" ma:internalName="MediaServiceOCR" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note">
-          <xsd:maxLength value="255"/>
-        </xsd:restriction>
-      </xsd:simpleType>
-    </xsd:element>
-  </xsd:schema>
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="41b1c9bf-5b6b-463b-ba12-a3b9bfbff0d3" elementFormDefault="qualified">
-    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <xsd:element name="TaxCatchAll" ma:index="13" nillable="true" ma:displayName="Taxonomy Catch All Column" ma:hidden="true" ma:list="{c5b79d03-3bfd-4c46-9947-056a2403f6c9}" ma:internalName="TaxCatchAll" ma:showField="CatchAllData" ma:web="41b1c9bf-5b6b-463b-ba12-a3b9bfbff0d3">
-      <xsd:complexType>
-        <xsd:complexContent>
-          <xsd:extension base="dms:MultiChoiceLookup">
-            <xsd:sequence>
-              <xsd:element name="Value" type="dms:Lookup" maxOccurs="unbounded" minOccurs="0" nillable="true"/>
-            </xsd:sequence>
-          </xsd:extension>
-        </xsd:complexContent>
-      </xsd:complexType>
-    </xsd:element>
-    <xsd:element name="SharedWithUsers" ma:index="19" nillable="true" ma:displayName="Shared With" ma:internalName="SharedWithUsers" ma:readOnly="true">
-      <xsd:complexType>
-        <xsd:complexContent>
-          <xsd:extension base="dms:UserMulti">
-            <xsd:sequence>
-              <xsd:element name="UserInfo" minOccurs="0" maxOccurs="unbounded">
-                <xsd:complexType>
-                  <xsd:sequence>
-                    <xsd:element name="DisplayName" type="xsd:string" minOccurs="0"/>
-                    <xsd:element name="AccountId" type="dms:UserId" minOccurs="0" nillable="true"/>
-                    <xsd:element name="AccountType" type="xsd:string" minOccurs="0"/>
-                  </xsd:sequence>
-                </xsd:complexType>
-              </xsd:element>
-            </xsd:sequence>
-          </xsd:extension>
-        </xsd:complexContent>
-      </xsd:complexType>
-    </xsd:element>
-    <xsd:element name="SharedWithDetails" ma:index="20" nillable="true" ma:displayName="Shared With Details" ma:internalName="SharedWithDetails" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note">
-          <xsd:maxLength value="255"/>
-        </xsd:restriction>
-      </xsd:simpleType>
-    </xsd:element>
-  </xsd:schema>
-  <xsd:schema xmlns="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:dc="http://purl.org/dc/elements/1.1/" xmlns:dcterms="http://purl.org/dc/terms/" xmlns:odoc="http://schemas.microsoft.com/internal/obd" targetNamespace="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" elementFormDefault="qualified" attributeFormDefault="unqualified" blockDefault="#all">
-    <xsd:import namespace="http://purl.org/dc/elements/1.1/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dc.xsd"/>
-    <xsd:import namespace="http://purl.org/dc/terms/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dcterms.xsd"/>
-    <xsd:element name="coreProperties" type="CT_coreProperties"/>
-    <xsd:complexType name="CT_coreProperties">
-      <xsd:all>
-        <xsd:element ref="dc:creator" minOccurs="0" maxOccurs="1"/>
-        <xsd:element ref="dcterms:created" minOccurs="0" maxOccurs="1"/>
-        <xsd:element ref="dc:identifier" minOccurs="0" maxOccurs="1"/>
-        <xsd:element name="contentType" minOccurs="0" maxOccurs="1" type="xsd:string" ma:index="0" ma:displayName="Content Type"/>
-        <xsd:element ref="dc:title" minOccurs="0" maxOccurs="1" ma:index="4" ma:displayName="Title"/>
-        <xsd:element ref="dc:subject" minOccurs="0" maxOccurs="1"/>
-        <xsd:element ref="dc:description" minOccurs="0" maxOccurs="1"/>
-        <xsd:element name="keywords" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-        <xsd:element ref="dc:language" minOccurs="0" maxOccurs="1"/>
-        <xsd:element name="category" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-        <xsd:element name="version" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-        <xsd:element name="revision" minOccurs="0" maxOccurs="1" type="xsd:string">
-          <xsd:annotation>
-            <xsd:documentation>
-                        This value indicates the number of saves or revisions. The application is responsible for updating this value after each revision.
-                    </xsd:documentation>
-          </xsd:annotation>
-        </xsd:element>
-        <xsd:element name="lastModifiedBy" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-        <xsd:element ref="dcterms:modified" minOccurs="0" maxOccurs="1"/>
-        <xsd:element name="contentStatus" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-      </xsd:all>
-    </xsd:complexType>
-  </xsd:schema>
-  <xs:schema xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" xmlns:xs="http://www.w3.org/2001/XMLSchema" targetNamespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" elementFormDefault="qualified" attributeFormDefault="unqualified">
-    <xs:element name="Person">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:DisplayName" minOccurs="0"/>
-          <xs:element ref="pc:AccountId" minOccurs="0"/>
-          <xs:element ref="pc:AccountType" minOccurs="0"/>
-        </xs:sequence>
-      </xs:complexType>
-    </xs:element>
-    <xs:element name="DisplayName" type="xs:string"/>
-    <xs:element name="AccountId" type="xs:string"/>
-    <xs:element name="AccountType" type="xs:string"/>
-    <xs:element name="BDCAssociatedEntity">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:BDCEntity" minOccurs="0" maxOccurs="unbounded"/>
-        </xs:sequence>
-        <xs:attribute ref="pc:EntityNamespace"/>
-        <xs:attribute ref="pc:EntityName"/>
-        <xs:attribute ref="pc:SystemInstanceName"/>
-        <xs:attribute ref="pc:AssociationName"/>
-      </xs:complexType>
-    </xs:element>
-    <xs:attribute name="EntityNamespace" type="xs:string"/>
-    <xs:attribute name="EntityName" type="xs:string"/>
-    <xs:attribute name="SystemInstanceName" type="xs:string"/>
-    <xs:attribute name="AssociationName" type="xs:string"/>
-    <xs:element name="BDCEntity">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:EntityDisplayName" minOccurs="0"/>
-          <xs:element ref="pc:EntityInstanceReference" minOccurs="0"/>
-          <xs:element ref="pc:EntityId1" minOccurs="0"/>
-          <xs:element ref="pc:EntityId2" minOccurs="0"/>
-          <xs:element ref="pc:EntityId3" minOccurs="0"/>
-          <xs:element ref="pc:EntityId4" minOccurs="0"/>
-          <xs:element ref="pc:EntityId5" minOccurs="0"/>
-        </xs:sequence>
-      </xs:complexType>
-    </xs:element>
-    <xs:element name="EntityDisplayName" type="xs:string"/>
-    <xs:element name="EntityInstanceReference" type="xs:string"/>
-    <xs:element name="EntityId1" type="xs:string"/>
-    <xs:element name="EntityId2" type="xs:string"/>
-    <xs:element name="EntityId3" type="xs:string"/>
-    <xs:element name="EntityId4" type="xs:string"/>
-    <xs:element name="EntityId5" type="xs:string"/>
-    <xs:element name="Terms">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:TermInfo" minOccurs="0" maxOccurs="unbounded"/>
-        </xs:sequence>
-      </xs:complexType>
-    </xs:element>
-    <xs:element name="TermInfo">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:TermName" minOccurs="0"/>
-          <xs:element ref="pc:TermId" minOccurs="0"/>
-        </xs:sequence>
-      </xs:complexType>
-    </xs:element>
-    <xs:element name="TermName" type="xs:string"/>
-    <xs:element name="TermId" type="xs:string"/>
-  </xs:schema>
-</ct:contentTypeSchema>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="00484652-42e1-479e-92f4-fb0efddcdf60">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="41b1c9bf-5b6b-463b-ba12-a3b9bfbff0d3" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7D8D9F35-FE5D-4D45-9137-32B08855B412}"/>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{78E51232-7557-40CB-B6D5-D5E28639D510}"/>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{95C41F9B-623D-4A3F-9AA8-8A4FBFF38AB7}"/>
 </file>